--- a/data/descriptor builder.xlsx
+++ b/data/descriptor builder.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>A</t>
   </si>
@@ -56,13 +56,13 @@
     <t>Secondary</t>
   </si>
   <si>
+    <t>Contact Only</t>
+  </si>
+  <si>
     <t>slugging</t>
   </si>
   <si>
     <t>smallball</t>
-  </si>
-  <si>
-    <t>fancy</t>
   </si>
   <si>
     <t>Weak Slugger</t>
@@ -92,9 +92,6 @@
     <t>fancy: control, sparkle, strategy</t>
   </si>
   <si>
-    <t>smallball: contact, control, speed</t>
-  </si>
-  <si>
     <t>manufacture: speed, bravery, timing, discipline</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>Weak Baserunner</t>
   </si>
   <si>
-    <t>Weak Strategy Hitter</t>
-  </si>
-  <si>
     <t>Versatile Hitter</t>
   </si>
   <si>
@@ -114,6 +108,27 @@
   </si>
   <si>
     <t>Slow Hitter</t>
+  </si>
+  <si>
+    <t>smallball: contact, control, speed, discipline</t>
+  </si>
+  <si>
+    <t>utility_hitter</t>
+  </si>
+  <si>
+    <t>Weak Utility</t>
+  </si>
+  <si>
+    <t>Pure Slugger</t>
+  </si>
+  <si>
+    <t>Slugger Only</t>
+  </si>
+  <si>
+    <t>Reliable Contact</t>
+  </si>
+  <si>
+    <t>Omnipresent Contact</t>
   </si>
 </sst>
 </file>
@@ -7786,7 +7801,7 @@
   <dimension ref="A1:Y120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7801,16 +7816,16 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="Y1" t="s">
         <v>17</v>
@@ -7830,12 +7845,12 @@
         <v>2</v>
       </c>
       <c r="Y2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7958,7 +7973,7 @@
         <f>IF(B5="",
 IF(B6="",IF(B4="","","    },"),
 CONCATENATE("    ","'",A5,"': {")),
-CONCATENATE("        ","'",B5,"': [",IF(C5="","","'"&amp;C5&amp;"',"),IF(D5="",""," '"&amp;D5&amp;"',"),IF(E5="",""," '"&amp;E5&amp;"',"),IF(F5="",""," '"&amp;F5&amp;"',"),IF(G5="",""," '"&amp;G5&amp;"',"),IF(H5="",""," '"&amp;H5&amp;"',"),IF(I5="",""," '"&amp;I5&amp;"',"),IF(J5="",""," '"&amp;J5&amp;"',"),IF(K5="",""," '"&amp;K5&amp;"',"),IF(L5="",""," '"&amp;L5&amp;"',"),"]"))</f>
+CONCATENATE("        ","'",B5,"': [",IF(C5="","","'"&amp;C5&amp;"',"),IF(D5="",""," '"&amp;D5&amp;"',"),IF(E5="",""," '"&amp;E5&amp;"',"),IF(F5="",""," '"&amp;F5&amp;"',"),IF(G5="",""," '"&amp;G5&amp;"',"),IF(H5="",""," '"&amp;H5&amp;"',"),IF(I5="",""," '"&amp;I5&amp;"',"),IF(J5="",""," '"&amp;J5&amp;"',"),IF(K5="",""," '"&amp;K5&amp;"',"),IF(L5="",""," '"&amp;L5&amp;"',"),"],"))</f>
         <v xml:space="preserve">    'slugging': {</v>
       </c>
     </row>
@@ -7988,10 +8003,10 @@
         <v>slugging</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -8028,8 +8043,8 @@
         <f t="shared" ref="M6:M69" si="2">IF(B6="",
 IF(B7="",IF(B5="","","    },"),
 CONCATENATE("    ","'",A6,"': {")),
-CONCATENATE("        ","'",B6,"': [",IF(C6="","","'"&amp;C6&amp;"',"),IF(D6="",""," '"&amp;D6&amp;"',"),IF(E6="",""," '"&amp;E6&amp;"',"),IF(F6="",""," '"&amp;F6&amp;"',"),IF(G6="",""," '"&amp;G6&amp;"',"),IF(H6="",""," '"&amp;H6&amp;"',"),IF(I6="",""," '"&amp;I6&amp;"',"),IF(J6="",""," '"&amp;J6&amp;"',"),IF(K6="",""," '"&amp;K6&amp;"',"),IF(L6="",""," '"&amp;L6&amp;"',"),"]"))</f>
-        <v xml:space="preserve">        'slugging': ['Weak Slugger', 'Average Slugger', 'Power Slugger',]</v>
+CONCATENATE("        ","'",B6,"': [",IF(C6="","","'"&amp;C6&amp;"',"),IF(D6="",""," '"&amp;D6&amp;"',"),IF(E6="",""," '"&amp;E6&amp;"',"),IF(F6="",""," '"&amp;F6&amp;"',"),IF(G6="",""," '"&amp;G6&amp;"',"),IF(H6="",""," '"&amp;H6&amp;"',"),IF(I6="",""," '"&amp;I6&amp;"',"),IF(J6="",""," '"&amp;J6&amp;"',"),IF(K6="",""," '"&amp;K6&amp;"',"),IF(L6="",""," '"&amp;L6&amp;"',"),"],"))</f>
+        <v xml:space="preserve">        'slugging': ['Slugger Only', 'Pure Slugger', 'Power Slugger',],</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -8096,7 +8111,7 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'smallball': ['Weak Slugger', 'Complete Hitter', 'Complete Clean-Up',]</v>
+        <v xml:space="preserve">        'smallball': ['Weak Slugger', 'Complete Hitter', 'Complete Clean-Up',],</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -8163,7 +8178,7 @@
       </c>
       <c r="M8" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'manufacture': ['Weak Slugger', 'Average Slugger', 'Fast Power Hitter',]</v>
+        <v xml:space="preserve">        'manufacture': ['Weak Slugger', 'Average Slugger', 'Fast Power Hitter',],</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -8189,18 +8204,18 @@
             (ROW()-ROW(start)-1),COUNTA(aspects)+2)
     )
 )</f>
-        <v>fancy</v>
+        <v>utility_hitter</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
-        <v>slugging: fancy - 0.8</v>
+        <v>slugging: utility_hitter - 0.8</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="1"/>
-        <v>slugging: fancy - 2</v>
+        <v>slugging: utility_hitter - 2</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
@@ -8232,7 +8247,7 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'fancy': ['Weak Slugger', 'slugging: fancy - 0.8', 'slugging: fancy - 2',]</v>
+        <v xml:space="preserve">        'utility_hitter': ['Weak Slugger', 'slugging: utility_hitter - 0.8', 'slugging: utility_hitter - 2',],</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -8401,15 +8416,13 @@
         <v>slugging</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="1"/>
-        <v>smallball: slugging - 0.8</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="1"/>
-        <v>smallball: slugging - 2</v>
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
@@ -8441,7 +8454,7 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'slugging': ['Weak Contact', 'smallball: slugging - 0.8', 'smallball: slugging - 2',]</v>
+        <v xml:space="preserve">        'slugging': ['Contact Only', 'Reliable Contact', 'Omnipresent Contact',],</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -8470,7 +8483,7 @@
         <v>smallball</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
@@ -8510,7 +8523,7 @@
       </c>
       <c r="M13" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'smallball': ['Weak Contact', 'smallball: smallball - 0.8', 'smallball: smallball - 2',]</v>
+        <v xml:space="preserve">        'smallball': ['Weak Contact', 'smallball: smallball - 0.8', 'smallball: smallball - 2',],</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -8539,7 +8552,7 @@
         <v>manufacture</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="1"/>
@@ -8579,7 +8592,7 @@
       </c>
       <c r="M14" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'manufacture': ['Weak Contact', 'smallball: manufacture - 0.8', 'smallball: manufacture - 2',]</v>
+        <v xml:space="preserve">        'manufacture': ['Weak Contact', 'smallball: manufacture - 0.8', 'smallball: manufacture - 2',],</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -8605,18 +8618,18 @@
             (ROW()-ROW(start)-1),COUNTA(aspects)+2)
     )
 )</f>
-        <v>fancy</v>
+        <v>utility_hitter</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
-        <v>smallball: fancy - 0.8</v>
+        <v>smallball: utility_hitter - 0.8</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="1"/>
-        <v>smallball: fancy - 2</v>
+        <v>smallball: utility_hitter - 2</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
@@ -8648,7 +8661,7 @@
       </c>
       <c r="M15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'fancy': ['Weak Contact', 'smallball: fancy - 0.8', 'smallball: fancy - 2',]</v>
+        <v xml:space="preserve">        'utility_hitter': ['Weak Contact', 'smallball: utility_hitter - 0.8', 'smallball: utility_hitter - 2',],</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -8817,7 +8830,7 @@
         <v>slugging</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="1"/>
@@ -8857,7 +8870,7 @@
       </c>
       <c r="M18" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'slugging': ['Weak Baserunner', 'manufacture: slugging - 0.8', 'manufacture: slugging - 2',]</v>
+        <v xml:space="preserve">        'slugging': ['Weak Baserunner', 'manufacture: slugging - 0.8', 'manufacture: slugging - 2',],</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -8886,7 +8899,7 @@
         <v>smallball</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="1"/>
@@ -8926,7 +8939,7 @@
       </c>
       <c r="M19" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'smallball': ['Weak Baserunner', 'manufacture: smallball - 0.8', 'manufacture: smallball - 2',]</v>
+        <v xml:space="preserve">        'smallball': ['Weak Baserunner', 'manufacture: smallball - 0.8', 'manufacture: smallball - 2',],</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -8955,7 +8968,7 @@
         <v>manufacture</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
@@ -8995,7 +9008,7 @@
       </c>
       <c r="M20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'manufacture': ['Weak Baserunner', 'manufacture: manufacture - 0.8', 'manufacture: manufacture - 2',]</v>
+        <v xml:space="preserve">        'manufacture': ['Weak Baserunner', 'manufacture: manufacture - 0.8', 'manufacture: manufacture - 2',],</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -9021,18 +9034,18 @@
             (ROW()-ROW(start)-1),COUNTA(aspects)+2)
     )
 )</f>
-        <v>fancy</v>
+        <v>utility_hitter</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="3"/>
-        <v>manufacture: fancy - 0.8</v>
+        <v>manufacture: utility_hitter - 0.8</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="3"/>
-        <v>manufacture: fancy - 2</v>
+        <v>manufacture: utility_hitter - 2</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="3"/>
@@ -9064,7 +9077,7 @@
       </c>
       <c r="M21" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'fancy': ['Weak Baserunner', 'manufacture: fancy - 0.8', 'manufacture: fancy - 2',]</v>
+        <v xml:space="preserve">        'utility_hitter': ['Weak Baserunner', 'manufacture: utility_hitter - 0.8', 'manufacture: utility_hitter - 2',],</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -9146,7 +9159,7 @@
         ""),
     INDEX(aspects,1,1+FLOOR((ROW()-ROW(start))/(COUNTA(aspects)+2),1))
 )</f>
-        <v>fancy</v>
+        <v>utility_hitter</v>
       </c>
       <c r="B23" t="str">
         <f>IF(
@@ -9204,7 +9217,7 @@
       </c>
       <c r="M23" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    'fancy': {</v>
+        <v xml:space="preserve">    'utility_hitter': {</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -9216,7 +9229,7 @@
         ""),
     INDEX(aspects,1,1+FLOOR((ROW()-ROW(start))/(COUNTA(aspects)+2),1))
 )</f>
-        <v>fancy</v>
+        <v>utility_hitter</v>
       </c>
       <c r="B24" t="str">
         <f>IF(
@@ -9233,15 +9246,15 @@
         <v>slugging</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="3"/>
-        <v>fancy: slugging - 0.8</v>
+        <v>utility_hitter: slugging - 0.8</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="3"/>
-        <v>fancy: slugging - 2</v>
+        <v>utility_hitter: slugging - 2</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="3"/>
@@ -9273,7 +9286,7 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'slugging': ['Weak Strategy Hitter', 'fancy: slugging - 0.8', 'fancy: slugging - 2',]</v>
+        <v xml:space="preserve">        'slugging': ['Weak Utility', 'utility_hitter: slugging - 0.8', 'utility_hitter: slugging - 2',],</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -9285,7 +9298,7 @@
         ""),
     INDEX(aspects,1,1+FLOOR((ROW()-ROW(start))/(COUNTA(aspects)+2),1))
 )</f>
-        <v>fancy</v>
+        <v>utility_hitter</v>
       </c>
       <c r="B25" t="str">
         <f>IF(
@@ -9302,15 +9315,15 @@
         <v>smallball</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="3"/>
-        <v>fancy: smallball - 0.8</v>
+        <v>utility_hitter: smallball - 0.8</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="3"/>
-        <v>fancy: smallball - 2</v>
+        <v>utility_hitter: smallball - 2</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="3"/>
@@ -9342,7 +9355,7 @@
       </c>
       <c r="M25" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'smallball': ['Weak Strategy Hitter', 'fancy: smallball - 0.8', 'fancy: smallball - 2',]</v>
+        <v xml:space="preserve">        'smallball': ['Weak Utility', 'utility_hitter: smallball - 0.8', 'utility_hitter: smallball - 2',],</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -9354,7 +9367,7 @@
         ""),
     INDEX(aspects,1,1+FLOOR((ROW()-ROW(start))/(COUNTA(aspects)+2),1))
 )</f>
-        <v>fancy</v>
+        <v>utility_hitter</v>
       </c>
       <c r="B26" t="str">
         <f>IF(
@@ -9371,15 +9384,15 @@
         <v>manufacture</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="3"/>
-        <v>fancy: manufacture - 0.8</v>
+        <v>utility_hitter: manufacture - 0.8</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="3"/>
-        <v>fancy: manufacture - 2</v>
+        <v>utility_hitter: manufacture - 2</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="3"/>
@@ -9411,7 +9424,7 @@
       </c>
       <c r="M26" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'manufacture': ['Weak Strategy Hitter', 'fancy: manufacture - 0.8', 'fancy: manufacture - 2',]</v>
+        <v xml:space="preserve">        'manufacture': ['Weak Utility', 'utility_hitter: manufacture - 0.8', 'utility_hitter: manufacture - 2',],</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -9423,7 +9436,7 @@
         ""),
     INDEX(aspects,1,1+FLOOR((ROW()-ROW(start))/(COUNTA(aspects)+2),1))
 )</f>
-        <v>fancy</v>
+        <v>utility_hitter</v>
       </c>
       <c r="B27" t="str">
         <f>IF(
@@ -9437,18 +9450,18 @@
             (ROW()-ROW(start)-1),COUNTA(aspects)+2)
     )
 )</f>
-        <v>fancy</v>
+        <v>utility_hitter</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="3"/>
-        <v>fancy: fancy - 0.8</v>
+        <v>utility_hitter: utility_hitter - 0.8</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="3"/>
-        <v>fancy: fancy - 2</v>
+        <v>utility_hitter: utility_hitter - 2</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="3"/>
@@ -9480,7 +9493,7 @@
       </c>
       <c r="M27" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'fancy': ['Weak Strategy Hitter', 'fancy: fancy - 0.8', 'fancy: fancy - 2',]</v>
+        <v xml:space="preserve">        'utility_hitter': ['Weak Utility', 'utility_hitter: utility_hitter - 0.8', 'utility_hitter: utility_hitter - 2',],</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -9492,7 +9505,7 @@
         ""),
     INDEX(aspects,1,1+FLOOR((ROW()-ROW(start))/(COUNTA(aspects)+2),1))
 )</f>
-        <v>fancy</v>
+        <v>utility_hitter</v>
       </c>
       <c r="B28" t="str">
         <f>IF(
@@ -9649,7 +9662,7 @@
         <v>slugging</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="3"/>
@@ -9689,7 +9702,7 @@
       </c>
       <c r="M30" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'slugging': ['Versatile Hitter', 'All: slugging - 0.8', 'All: slugging - 2',]</v>
+        <v xml:space="preserve">        'slugging': ['Versatile Hitter', 'All: slugging - 0.8', 'All: slugging - 2',],</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -9718,7 +9731,7 @@
         <v>smallball</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="3"/>
@@ -9758,7 +9771,7 @@
       </c>
       <c r="M31" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'smallball': ['Versatile Hitter', 'All: smallball - 0.8', 'All: smallball - 2',]</v>
+        <v xml:space="preserve">        'smallball': ['Versatile Hitter', 'All: smallball - 0.8', 'All: smallball - 2',],</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -9787,7 +9800,7 @@
         <v>manufacture</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="3"/>
@@ -9827,7 +9840,7 @@
       </c>
       <c r="M32" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'manufacture': ['Versatile Baserunner', 'All: manufacture - 0.8', 'All: manufacture - 2',]</v>
+        <v xml:space="preserve">        'manufacture': ['Versatile Baserunner', 'All: manufacture - 0.8', 'All: manufacture - 2',],</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -9853,18 +9866,18 @@
             (ROW()-ROW(start)-1),COUNTA(aspects)+2)
     )
 )</f>
-        <v>fancy</v>
+        <v>utility_hitter</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="3"/>
-        <v>All: fancy - 0.8</v>
+        <v>All: utility_hitter - 0.8</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="3"/>
-        <v>All: fancy - 2</v>
+        <v>All: utility_hitter - 2</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="3"/>
@@ -9896,7 +9909,7 @@
       </c>
       <c r="M33" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'fancy': ['Versatile Hitter', 'All: fancy - 0.8', 'All: fancy - 2',]</v>
+        <v xml:space="preserve">        'utility_hitter': ['Versatile Hitter', 'All: utility_hitter - 0.8', 'All: utility_hitter - 2',],</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -10065,7 +10078,7 @@
         <v>slugging</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="3"/>
@@ -10105,7 +10118,7 @@
       </c>
       <c r="M36" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'slugging': ['Weak Contact', 'Not: slugging - 0.8', 'Not: slugging - 2',]</v>
+        <v xml:space="preserve">        'slugging': ['Weak Contact', 'Not: slugging - 0.8', 'Not: slugging - 2',],</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -10174,7 +10187,7 @@
       </c>
       <c r="M37" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'smallball': ['Weak Slugger', 'Not: smallball - 0.8', 'Not: smallball - 2',]</v>
+        <v xml:space="preserve">        'smallball': ['Weak Slugger', 'Not: smallball - 0.8', 'Not: smallball - 2',],</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -10203,7 +10216,7 @@
         <v>manufacture</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" ref="C38:L69" si="4">IF(OR($B38="", D$4=""),"",CONCATENATE($A38,": ",$B38," - ",D$4))</f>
@@ -10243,7 +10256,7 @@
       </c>
       <c r="M38" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'manufacture': ['Slow Hitter', 'Not: manufacture - 0.8', 'Not: manufacture - 2',]</v>
+        <v xml:space="preserve">        'manufacture': ['Slow Hitter', 'Not: manufacture - 0.8', 'Not: manufacture - 2',],</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -10269,18 +10282,18 @@
             (ROW()-ROW(start)-1),COUNTA(aspects)+2)
     )
 )</f>
-        <v>fancy</v>
+        <v>utility_hitter</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="4"/>
-        <v>Not: fancy - 0.8</v>
+        <v>Not: utility_hitter - 0.8</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="4"/>
-        <v>Not: fancy - 2</v>
+        <v>Not: utility_hitter - 2</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="4"/>
@@ -10312,7 +10325,7 @@
       </c>
       <c r="M39" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">        'fancy': ['Versatile Hitter', 'Not: fancy - 0.8', 'Not: fancy - 2',]</v>
+        <v xml:space="preserve">        'utility_hitter': ['Versatile Hitter', 'Not: utility_hitter - 0.8', 'Not: utility_hitter - 2',],</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -12484,7 +12497,7 @@
         <f t="shared" ref="M70:M120" si="7">IF(B70="",
 IF(B71="",IF(B69="","","    },"),
 CONCATENATE("    ","'",A70,"': {")),
-CONCATENATE("        ","'",B70,"': [",IF(C70="","","'"&amp;C70&amp;"',"),IF(D70="",""," '"&amp;D70&amp;"',"),IF(E70="",""," '"&amp;E70&amp;"',"),IF(F70="",""," '"&amp;F70&amp;"',"),IF(G70="",""," '"&amp;G70&amp;"',"),IF(H70="",""," '"&amp;H70&amp;"',"),IF(I70="",""," '"&amp;I70&amp;"',"),IF(J70="",""," '"&amp;J70&amp;"',"),IF(K70="",""," '"&amp;K70&amp;"',"),IF(L70="",""," '"&amp;L70&amp;"',"),"]"))</f>
+CONCATENATE("        ","'",B70,"': [",IF(C70="","","'"&amp;C70&amp;"',"),IF(D70="",""," '"&amp;D70&amp;"',"),IF(E70="",""," '"&amp;E70&amp;"',"),IF(F70="",""," '"&amp;F70&amp;"',"),IF(G70="",""," '"&amp;G70&amp;"',"),IF(H70="",""," '"&amp;H70&amp;"',"),IF(I70="",""," '"&amp;I70&amp;"',"),IF(J70="",""," '"&amp;J70&amp;"',"),IF(K70="",""," '"&amp;K70&amp;"',"),IF(L70="",""," '"&amp;L70&amp;"',"),"],"))</f>
         <v/>
       </c>
     </row>

--- a/data/descriptor builder.xlsx
+++ b/data/descriptor builder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcgiffenk\Desktop\newpy\xtreemblaseball99\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3616688-B803-4F06-90C8-778319EBC867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440E60B8-CDA3-45EF-9449-CBC6CEEF610E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>A</t>
   </si>
@@ -102,13 +102,7 @@
     <t>Pure Contact</t>
   </si>
   <si>
-    <t>o_slugging</t>
-  </si>
-  <si>
     <t>o_smallball</t>
-  </si>
-  <si>
-    <t>o_baserunning</t>
   </si>
   <si>
     <t>o_fielding</t>
@@ -199,9 +193,6 @@
   </si>
   <si>
     <t>o_support</t>
-  </si>
-  <si>
-    <t>o_friend</t>
   </si>
   <si>
     <t>flame</t>
@@ -298,6 +289,9 @@
   </si>
   <si>
     <t>Utility All-Rounder</t>
+  </si>
+  <si>
+    <t>o_power</t>
   </si>
 </sst>
 </file>
@@ -12048,8 +12042,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:M124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12063,34 +12057,28 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -12159,7 +12147,7 @@
         IF(ROW()-ROW(start)&lt;(COUNTA(aspects)+1)^2+(COUNTA(aspects)+1),"All",""),
     INDEX(aspects,1,1+FLOOR((ROW()-ROW(start))/(COUNTA(aspects)+2),1))
 )</f>
-        <v>o_slugging</v>
+        <v>o_power</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B36" si="2">IF(
@@ -12220,33 +12208,33 @@
 IF(B6="",IF(B4="","","    },"),
 CONCATENATE("    ","'",A5,"': {")),
 CONCATENATE("        ","'",B5,"': [",IF(C5="","","'"&amp;C5&amp;"',"),IF(D5="",""," '"&amp;D5&amp;"',"),IF(E5="",""," '"&amp;E5&amp;"',"),IF(F5="",""," '"&amp;F5&amp;"',"),IF(G5="",""," '"&amp;G5&amp;"',"),IF(H5="",""," '"&amp;H5&amp;"',"),IF(I5="",""," '"&amp;I5&amp;"',"),IF(J5="",""," '"&amp;J5&amp;"',"),IF(K5="",""," '"&amp;K5&amp;"',"),IF(L5="",""," '"&amp;L5&amp;"',")," ],"))</f>
-        <v xml:space="preserve">    'o_slugging': {</v>
+        <v xml:space="preserve">    'o_power': {</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="1"/>
-        <v>o_slugging</v>
+        <v>o_power</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="2"/>
-        <v>o_slugging</v>
+        <v>o_power</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ref="C6:L37" si="4">IF(OR($B6="", C$4=""),"",CONCATENATE($A6,": ",$B6," - ",C$4))</f>
-        <v>o_slugging: o_slugging - 0.4</v>
+        <v>o_power: o_power - 0.4</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_slugging - 0.8</v>
+        <v>o_power: o_power - 0.8</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_slugging - 1.2</v>
+        <v>o_power: o_power - 1.2</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_slugging - 2</v>
+        <v>o_power: o_power - 2</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="3"/>
@@ -12277,13 +12265,13 @@
 IF(B7="",IF(B5="","","    },"),
 CONCATENATE("    ","'",A6,"': {")),
 CONCATENATE("        ","'",B6,"': [",IF(C6="","","'"&amp;C6&amp;"',"),IF(D6="",""," '"&amp;D6&amp;"',"),IF(E6="",""," '"&amp;E6&amp;"',"),IF(F6="",""," '"&amp;F6&amp;"',"),IF(G6="",""," '"&amp;G6&amp;"',"),IF(H6="",""," '"&amp;H6&amp;"',"),IF(I6="",""," '"&amp;I6&amp;"',"),IF(J6="",""," '"&amp;J6&amp;"',"),IF(K6="",""," '"&amp;K6&amp;"',"),IF(L6="",""," '"&amp;L6&amp;"',")," ],"))</f>
-        <v xml:space="preserve">        'o_slugging': ['o_slugging: o_slugging - 0.4', 'o_slugging: o_slugging - 0.8', 'o_slugging: o_slugging - 1.2', 'o_slugging: o_slugging - 2', ],</v>
+        <v xml:space="preserve">        'o_power': ['o_power: o_power - 0.4', 'o_power: o_power - 0.8', 'o_power: o_power - 1.2', 'o_power: o_power - 2', ],</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="1"/>
-        <v>o_slugging</v>
+        <v>o_power</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="2"/>
@@ -12291,19 +12279,19 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" si="4"/>
-        <v>o_slugging: o_smallball - 0.4</v>
+        <v>o_power: o_smallball - 0.4</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_smallball - 0.8</v>
+        <v>o_power: o_smallball - 0.8</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_smallball - 1.2</v>
+        <v>o_power: o_smallball - 1.2</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_smallball - 2</v>
+        <v>o_power: o_smallball - 2</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="3"/>
@@ -12331,33 +12319,33 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_smallball': ['o_slugging: o_smallball - 0.4', 'o_slugging: o_smallball - 0.8', 'o_slugging: o_smallball - 1.2', 'o_slugging: o_smallball - 2', ],</v>
+        <v xml:space="preserve">        'o_smallball': ['o_power: o_smallball - 0.4', 'o_power: o_smallball - 0.8', 'o_power: o_smallball - 1.2', 'o_power: o_smallball - 2', ],</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="1"/>
-        <v>o_slugging</v>
+        <v>o_power</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="2"/>
-        <v>o_baserunning</v>
+        <v>o_fielding</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="4"/>
-        <v>o_slugging: o_baserunning - 0.4</v>
+        <v>o_power: o_fielding - 0.4</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_baserunning - 0.8</v>
+        <v>o_power: o_fielding - 0.8</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_baserunning - 1.2</v>
+        <v>o_power: o_fielding - 1.2</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_baserunning - 2</v>
+        <v>o_power: o_fielding - 2</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="3"/>
@@ -12385,33 +12373,33 @@
       </c>
       <c r="M8" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_baserunning': ['o_slugging: o_baserunning - 0.4', 'o_slugging: o_baserunning - 0.8', 'o_slugging: o_baserunning - 1.2', 'o_slugging: o_baserunning - 2', ],</v>
+        <v xml:space="preserve">        'o_fielding': ['o_power: o_fielding - 0.4', 'o_power: o_fielding - 0.8', 'o_power: o_fielding - 1.2', 'o_power: o_fielding - 2', ],</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="1"/>
-        <v>o_slugging</v>
+        <v>o_power</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="2"/>
-        <v>o_fielding</v>
+        <v>o_fastball</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="4"/>
-        <v>o_slugging: o_fielding - 0.4</v>
+        <v>o_power: o_fastball - 0.4</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_fielding - 0.8</v>
+        <v>o_power: o_fastball - 0.8</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_fielding - 1.2</v>
+        <v>o_power: o_fastball - 1.2</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_fielding - 2</v>
+        <v>o_power: o_fastball - 2</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="3"/>
@@ -12439,13 +12427,13 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_fielding': ['o_slugging: o_fielding - 0.4', 'o_slugging: o_fielding - 0.8', 'o_slugging: o_fielding - 1.2', 'o_slugging: o_fielding - 2', ],</v>
+        <v xml:space="preserve">        'o_fastball': ['o_power: o_fastball - 0.4', 'o_power: o_fastball - 0.8', 'o_power: o_fastball - 1.2', 'o_power: o_fastball - 2', ],</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="1"/>
-        <v>o_slugging</v>
+        <v>o_power</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="2"/>
@@ -12453,19 +12441,19 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" si="4"/>
-        <v>o_slugging: o_tricky - 0.4</v>
+        <v>o_power: o_tricky - 0.4</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_tricky - 0.8</v>
+        <v>o_power: o_tricky - 0.8</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_tricky - 1.2</v>
+        <v>o_power: o_tricky - 1.2</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_tricky - 2</v>
+        <v>o_power: o_tricky - 2</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="3"/>
@@ -12493,33 +12481,33 @@
       </c>
       <c r="M10" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_tricky': ['o_slugging: o_tricky - 0.4', 'o_slugging: o_tricky - 0.8', 'o_slugging: o_tricky - 1.2', 'o_slugging: o_tricky - 2', ],</v>
+        <v xml:space="preserve">        'o_tricky': ['o_power: o_tricky - 0.4', 'o_power: o_tricky - 0.8', 'o_power: o_tricky - 1.2', 'o_power: o_tricky - 2', ],</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="1"/>
-        <v>o_slugging</v>
+        <v>o_power</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="2"/>
-        <v>o_fastball</v>
+        <v>o_utility</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="4"/>
-        <v>o_slugging: o_fastball - 0.4</v>
+        <v>o_power: o_utility - 0.4</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_fastball - 0.8</v>
+        <v>o_power: o_utility - 0.8</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_fastball - 1.2</v>
+        <v>o_power: o_utility - 1.2</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_fastball - 2</v>
+        <v>o_power: o_utility - 2</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="3"/>
@@ -12547,33 +12535,33 @@
       </c>
       <c r="M11" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_fastball': ['o_slugging: o_fastball - 0.4', 'o_slugging: o_fastball - 0.8', 'o_slugging: o_fastball - 1.2', 'o_slugging: o_fastball - 2', ],</v>
+        <v xml:space="preserve">        'o_utility': ['o_power: o_utility - 0.4', 'o_power: o_utility - 0.8', 'o_power: o_utility - 1.2', 'o_power: o_utility - 2', ],</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="1"/>
-        <v>o_slugging</v>
+        <v>o_power</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="2"/>
-        <v>o_utility</v>
+        <v>o_coach</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="4"/>
-        <v>o_slugging: o_utility - 0.4</v>
+        <v>o_power: o_coach - 0.4</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_utility - 0.8</v>
+        <v>o_power: o_coach - 0.8</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_utility - 1.2</v>
+        <v>o_power: o_coach - 1.2</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_utility - 2</v>
+        <v>o_power: o_coach - 2</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="3"/>
@@ -12601,33 +12589,33 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_utility': ['o_slugging: o_utility - 0.4', 'o_slugging: o_utility - 0.8', 'o_slugging: o_utility - 1.2', 'o_slugging: o_utility - 2', ],</v>
+        <v xml:space="preserve">        'o_coach': ['o_power: o_coach - 0.4', 'o_power: o_coach - 0.8', 'o_power: o_coach - 1.2', 'o_power: o_coach - 2', ],</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="1"/>
-        <v>o_slugging</v>
+        <v>o_power</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="2"/>
-        <v>o_coach</v>
+        <v>o_support</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="4"/>
-        <v>o_slugging: o_coach - 0.4</v>
+        <v>o_power: o_support - 0.4</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_coach - 0.8</v>
+        <v>o_power: o_support - 0.8</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_coach - 1.2</v>
+        <v>o_power: o_support - 1.2</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_coach - 2</v>
+        <v>o_power: o_support - 2</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="3"/>
@@ -12655,33 +12643,33 @@
       </c>
       <c r="M13" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_coach': ['o_slugging: o_coach - 0.4', 'o_slugging: o_coach - 0.8', 'o_slugging: o_coach - 1.2', 'o_slugging: o_coach - 2', ],</v>
+        <v xml:space="preserve">        'o_support': ['o_power: o_support - 0.4', 'o_power: o_support - 0.8', 'o_power: o_support - 1.2', 'o_power: o_support - 2', ],</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="1"/>
-        <v>o_slugging</v>
+        <v>o_power</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="2"/>
-        <v>o_support</v>
+        <v/>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="4"/>
-        <v>o_slugging: o_support - 0.4</v>
+        <v/>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_support - 0.8</v>
+        <v/>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_support - 1.2</v>
+        <v/>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_support - 2</v>
+        <v/>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="3"/>
@@ -12709,33 +12697,33 @@
       </c>
       <c r="M14" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_support': ['o_slugging: o_support - 0.4', 'o_slugging: o_support - 0.8', 'o_slugging: o_support - 1.2', 'o_slugging: o_support - 2', ],</v>
+        <v xml:space="preserve">    },</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="1"/>
-        <v>o_slugging</v>
+        <v>o_smallball</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="2"/>
-        <v>o_friend</v>
+        <v/>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="4"/>
-        <v>o_slugging: o_friend - 0.4</v>
+        <v/>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_friend - 0.8</v>
+        <v/>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_friend - 1.2</v>
+        <v/>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="3"/>
-        <v>o_slugging: o_friend - 2</v>
+        <v/>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="3"/>
@@ -12763,33 +12751,33 @@
       </c>
       <c r="M15" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_friend': ['o_slugging: o_friend - 0.4', 'o_slugging: o_friend - 0.8', 'o_slugging: o_friend - 1.2', 'o_slugging: o_friend - 2', ],</v>
+        <v xml:space="preserve">    'o_smallball': {</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="1"/>
-        <v>o_slugging</v>
+        <v>o_smallball</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>o_power</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>o_smallball: o_power - 0.4</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>o_smallball: o_power - 0.8</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>o_smallball: o_power - 1.2</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>o_smallball: o_power - 2</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="3"/>
@@ -12817,7 +12805,7 @@
       </c>
       <c r="M16" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">    },</v>
+        <v xml:space="preserve">        'o_power': ['o_smallball: o_power - 0.4', 'o_smallball: o_power - 0.8', 'o_smallball: o_power - 1.2', 'o_smallball: o_power - 2', ],</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -12827,23 +12815,23 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>o_smallball</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>o_smallball: o_smallball - 0.4</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>o_smallball: o_smallball - 0.8</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>o_smallball: o_smallball - 1.2</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>o_smallball: o_smallball - 2</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="3"/>
@@ -12871,7 +12859,7 @@
       </c>
       <c r="M17" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">    'o_smallball': {</v>
+        <v xml:space="preserve">        'o_smallball': ['o_smallball: o_smallball - 0.4', 'o_smallball: o_smallball - 0.8', 'o_smallball: o_smallball - 1.2', 'o_smallball: o_smallball - 2', ],</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -12881,23 +12869,23 @@
       </c>
       <c r="B18" t="str">
         <f t="shared" si="2"/>
-        <v>o_slugging</v>
+        <v>o_fielding</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_slugging - 0.4</v>
+        <v>o_smallball: o_fielding - 0.4</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="3"/>
-        <v>o_smallball: o_slugging - 0.8</v>
+        <v>o_smallball: o_fielding - 0.8</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="3"/>
-        <v>o_smallball: o_slugging - 1.2</v>
+        <v>o_smallball: o_fielding - 1.2</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="3"/>
-        <v>o_smallball: o_slugging - 2</v>
+        <v>o_smallball: o_fielding - 2</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="3"/>
@@ -12925,7 +12913,7 @@
       </c>
       <c r="M18" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_slugging': ['o_smallball: o_slugging - 0.4', 'o_smallball: o_slugging - 0.8', 'o_smallball: o_slugging - 1.2', 'o_smallball: o_slugging - 2', ],</v>
+        <v xml:space="preserve">        'o_fielding': ['o_smallball: o_fielding - 0.4', 'o_smallball: o_fielding - 0.8', 'o_smallball: o_fielding - 1.2', 'o_smallball: o_fielding - 2', ],</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -12935,23 +12923,23 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" si="2"/>
-        <v>o_smallball</v>
+        <v>o_fastball</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_smallball - 0.4</v>
+        <v>o_smallball: o_fastball - 0.4</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="3"/>
-        <v>o_smallball: o_smallball - 0.8</v>
+        <v>o_smallball: o_fastball - 0.8</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="3"/>
-        <v>o_smallball: o_smallball - 1.2</v>
+        <v>o_smallball: o_fastball - 1.2</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="3"/>
-        <v>o_smallball: o_smallball - 2</v>
+        <v>o_smallball: o_fastball - 2</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="3"/>
@@ -12979,7 +12967,7 @@
       </c>
       <c r="M19" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_smallball': ['o_smallball: o_smallball - 0.4', 'o_smallball: o_smallball - 0.8', 'o_smallball: o_smallball - 1.2', 'o_smallball: o_smallball - 2', ],</v>
+        <v xml:space="preserve">        'o_fastball': ['o_smallball: o_fastball - 0.4', 'o_smallball: o_fastball - 0.8', 'o_smallball: o_fastball - 1.2', 'o_smallball: o_fastball - 2', ],</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -12989,23 +12977,23 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" si="2"/>
-        <v>o_baserunning</v>
+        <v>o_tricky</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_baserunning - 0.4</v>
+        <v>o_smallball: o_tricky - 0.4</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="3"/>
-        <v>o_smallball: o_baserunning - 0.8</v>
+        <v>o_smallball: o_tricky - 0.8</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="3"/>
-        <v>o_smallball: o_baserunning - 1.2</v>
+        <v>o_smallball: o_tricky - 1.2</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="3"/>
-        <v>o_smallball: o_baserunning - 2</v>
+        <v>o_smallball: o_tricky - 2</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="3"/>
@@ -13033,7 +13021,7 @@
       </c>
       <c r="M20" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_baserunning': ['o_smallball: o_baserunning - 0.4', 'o_smallball: o_baserunning - 0.8', 'o_smallball: o_baserunning - 1.2', 'o_smallball: o_baserunning - 2', ],</v>
+        <v xml:space="preserve">        'o_tricky': ['o_smallball: o_tricky - 0.4', 'o_smallball: o_tricky - 0.8', 'o_smallball: o_tricky - 1.2', 'o_smallball: o_tricky - 2', ],</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -13043,23 +13031,23 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" si="2"/>
-        <v>o_fielding</v>
+        <v>o_utility</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_fielding - 0.4</v>
+        <v>o_smallball: o_utility - 0.4</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_fielding - 0.8</v>
+        <v>o_smallball: o_utility - 0.8</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_fielding - 1.2</v>
+        <v>o_smallball: o_utility - 1.2</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_fielding - 2</v>
+        <v>o_smallball: o_utility - 2</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="4"/>
@@ -13087,7 +13075,7 @@
       </c>
       <c r="M21" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_fielding': ['o_smallball: o_fielding - 0.4', 'o_smallball: o_fielding - 0.8', 'o_smallball: o_fielding - 1.2', 'o_smallball: o_fielding - 2', ],</v>
+        <v xml:space="preserve">        'o_utility': ['o_smallball: o_utility - 0.4', 'o_smallball: o_utility - 0.8', 'o_smallball: o_utility - 1.2', 'o_smallball: o_utility - 2', ],</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -13097,23 +13085,23 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" si="2"/>
-        <v>o_tricky</v>
+        <v>o_coach</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_tricky - 0.4</v>
+        <v>o_smallball: o_coach - 0.4</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_tricky - 0.8</v>
+        <v>o_smallball: o_coach - 0.8</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_tricky - 1.2</v>
+        <v>o_smallball: o_coach - 1.2</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_tricky - 2</v>
+        <v>o_smallball: o_coach - 2</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="4"/>
@@ -13141,7 +13129,7 @@
       </c>
       <c r="M22" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_tricky': ['o_smallball: o_tricky - 0.4', 'o_smallball: o_tricky - 0.8', 'o_smallball: o_tricky - 1.2', 'o_smallball: o_tricky - 2', ],</v>
+        <v xml:space="preserve">        'o_coach': ['o_smallball: o_coach - 0.4', 'o_smallball: o_coach - 0.8', 'o_smallball: o_coach - 1.2', 'o_smallball: o_coach - 2', ],</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -13151,23 +13139,23 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" si="2"/>
-        <v>o_fastball</v>
+        <v>o_support</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_fastball - 0.4</v>
+        <v>o_smallball: o_support - 0.4</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_fastball - 0.8</v>
+        <v>o_smallball: o_support - 0.8</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_fastball - 1.2</v>
+        <v>o_smallball: o_support - 1.2</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_fastball - 2</v>
+        <v>o_smallball: o_support - 2</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="4"/>
@@ -13195,7 +13183,7 @@
       </c>
       <c r="M23" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_fastball': ['o_smallball: o_fastball - 0.4', 'o_smallball: o_fastball - 0.8', 'o_smallball: o_fastball - 1.2', 'o_smallball: o_fastball - 2', ],</v>
+        <v xml:space="preserve">        'o_support': ['o_smallball: o_support - 0.4', 'o_smallball: o_support - 0.8', 'o_smallball: o_support - 1.2', 'o_smallball: o_support - 2', ],</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -13205,23 +13193,23 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" si="2"/>
-        <v>o_utility</v>
+        <v/>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_utility - 0.4</v>
+        <v/>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_utility - 0.8</v>
+        <v/>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_utility - 1.2</v>
+        <v/>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_utility - 2</v>
+        <v/>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="4"/>
@@ -13249,33 +13237,33 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_utility': ['o_smallball: o_utility - 0.4', 'o_smallball: o_utility - 0.8', 'o_smallball: o_utility - 1.2', 'o_smallball: o_utility - 2', ],</v>
+        <v xml:space="preserve">    },</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="1"/>
-        <v>o_smallball</v>
+        <v>o_fielding</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="2"/>
-        <v>o_coach</v>
+        <v/>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_coach - 0.4</v>
+        <v/>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_coach - 0.8</v>
+        <v/>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_coach - 1.2</v>
+        <v/>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_coach - 2</v>
+        <v/>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="4"/>
@@ -13303,33 +13291,33 @@
       </c>
       <c r="M25" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_coach': ['o_smallball: o_coach - 0.4', 'o_smallball: o_coach - 0.8', 'o_smallball: o_coach - 1.2', 'o_smallball: o_coach - 2', ],</v>
+        <v xml:space="preserve">    'o_fielding': {</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="1"/>
-        <v>o_smallball</v>
+        <v>o_fielding</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="2"/>
-        <v>o_support</v>
+        <v>o_power</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_support - 0.4</v>
+        <v>o_fielding: o_power - 0.4</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_support - 0.8</v>
+        <v>o_fielding: o_power - 0.8</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_support - 1.2</v>
+        <v>o_fielding: o_power - 1.2</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_support - 2</v>
+        <v>o_fielding: o_power - 2</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="4"/>
@@ -13357,33 +13345,33 @@
       </c>
       <c r="M26" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_support': ['o_smallball: o_support - 0.4', 'o_smallball: o_support - 0.8', 'o_smallball: o_support - 1.2', 'o_smallball: o_support - 2', ],</v>
+        <v xml:space="preserve">        'o_power': ['o_fielding: o_power - 0.4', 'o_fielding: o_power - 0.8', 'o_fielding: o_power - 1.2', 'o_fielding: o_power - 2', ],</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="1"/>
-        <v>o_smallball</v>
+        <v>o_fielding</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="2"/>
-        <v>o_friend</v>
+        <v>o_smallball</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_friend - 0.4</v>
+        <v>o_fielding: o_smallball - 0.4</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_friend - 0.8</v>
+        <v>o_fielding: o_smallball - 0.8</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_friend - 1.2</v>
+        <v>o_fielding: o_smallball - 1.2</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="4"/>
-        <v>o_smallball: o_friend - 2</v>
+        <v>o_fielding: o_smallball - 2</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="4"/>
@@ -13411,33 +13399,33 @@
       </c>
       <c r="M27" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_friend': ['o_smallball: o_friend - 0.4', 'o_smallball: o_friend - 0.8', 'o_smallball: o_friend - 1.2', 'o_smallball: o_friend - 2', ],</v>
+        <v xml:space="preserve">        'o_smallball': ['o_fielding: o_smallball - 0.4', 'o_fielding: o_smallball - 0.8', 'o_fielding: o_smallball - 1.2', 'o_fielding: o_smallball - 2', ],</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="1"/>
-        <v>o_smallball</v>
+        <v>o_fielding</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>o_fielding</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>o_fielding: o_fielding - 0.4</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>o_fielding: o_fielding - 0.8</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>o_fielding: o_fielding - 1.2</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>o_fielding: o_fielding - 2</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="4"/>
@@ -13465,33 +13453,33 @@
       </c>
       <c r="M28" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">    },</v>
+        <v xml:space="preserve">        'o_fielding': ['o_fielding: o_fielding - 0.4', 'o_fielding: o_fielding - 0.8', 'o_fielding: o_fielding - 1.2', 'o_fielding: o_fielding - 2', ],</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="1"/>
-        <v>o_baserunning</v>
+        <v>o_fielding</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>o_fastball</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>o_fielding: o_fastball - 0.4</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>o_fielding: o_fastball - 0.8</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>o_fielding: o_fastball - 1.2</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>o_fielding: o_fastball - 2</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="4"/>
@@ -13519,33 +13507,33 @@
       </c>
       <c r="M29" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">    'o_baserunning': {</v>
+        <v xml:space="preserve">        'o_fastball': ['o_fielding: o_fastball - 0.4', 'o_fielding: o_fastball - 0.8', 'o_fielding: o_fastball - 1.2', 'o_fielding: o_fastball - 2', ],</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="1"/>
-        <v>o_baserunning</v>
+        <v>o_fielding</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="2"/>
-        <v>o_slugging</v>
+        <v>o_tricky</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_slugging - 0.4</v>
+        <v>o_fielding: o_tricky - 0.4</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_slugging - 0.8</v>
+        <v>o_fielding: o_tricky - 0.8</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_slugging - 1.2</v>
+        <v>o_fielding: o_tricky - 1.2</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_slugging - 2</v>
+        <v>o_fielding: o_tricky - 2</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="4"/>
@@ -13573,33 +13561,33 @@
       </c>
       <c r="M30" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_slugging': ['o_baserunning: o_slugging - 0.4', 'o_baserunning: o_slugging - 0.8', 'o_baserunning: o_slugging - 1.2', 'o_baserunning: o_slugging - 2', ],</v>
+        <v xml:space="preserve">        'o_tricky': ['o_fielding: o_tricky - 0.4', 'o_fielding: o_tricky - 0.8', 'o_fielding: o_tricky - 1.2', 'o_fielding: o_tricky - 2', ],</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="1"/>
-        <v>o_baserunning</v>
+        <v>o_fielding</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="2"/>
-        <v>o_smallball</v>
+        <v>o_utility</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_smallball - 0.4</v>
+        <v>o_fielding: o_utility - 0.4</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_smallball - 0.8</v>
+        <v>o_fielding: o_utility - 0.8</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_smallball - 1.2</v>
+        <v>o_fielding: o_utility - 1.2</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_smallball - 2</v>
+        <v>o_fielding: o_utility - 2</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="4"/>
@@ -13627,33 +13615,33 @@
       </c>
       <c r="M31" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_smallball': ['o_baserunning: o_smallball - 0.4', 'o_baserunning: o_smallball - 0.8', 'o_baserunning: o_smallball - 1.2', 'o_baserunning: o_smallball - 2', ],</v>
+        <v xml:space="preserve">        'o_utility': ['o_fielding: o_utility - 0.4', 'o_fielding: o_utility - 0.8', 'o_fielding: o_utility - 1.2', 'o_fielding: o_utility - 2', ],</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="1"/>
-        <v>o_baserunning</v>
+        <v>o_fielding</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="2"/>
-        <v>o_baserunning</v>
+        <v>o_coach</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_baserunning - 0.4</v>
+        <v>o_fielding: o_coach - 0.4</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_baserunning - 0.8</v>
+        <v>o_fielding: o_coach - 0.8</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_baserunning - 1.2</v>
+        <v>o_fielding: o_coach - 1.2</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_baserunning - 2</v>
+        <v>o_fielding: o_coach - 2</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="4"/>
@@ -13681,33 +13669,33 @@
       </c>
       <c r="M32" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_baserunning': ['o_baserunning: o_baserunning - 0.4', 'o_baserunning: o_baserunning - 0.8', 'o_baserunning: o_baserunning - 1.2', 'o_baserunning: o_baserunning - 2', ],</v>
+        <v xml:space="preserve">        'o_coach': ['o_fielding: o_coach - 0.4', 'o_fielding: o_coach - 0.8', 'o_fielding: o_coach - 1.2', 'o_fielding: o_coach - 2', ],</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="1"/>
-        <v>o_baserunning</v>
+        <v>o_fielding</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="2"/>
-        <v>o_fielding</v>
+        <v>o_support</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_fielding - 0.4</v>
+        <v>o_fielding: o_support - 0.4</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_fielding - 0.8</v>
+        <v>o_fielding: o_support - 0.8</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_fielding - 1.2</v>
+        <v>o_fielding: o_support - 1.2</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_fielding - 2</v>
+        <v>o_fielding: o_support - 2</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="4"/>
@@ -13735,33 +13723,33 @@
       </c>
       <c r="M33" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_fielding': ['o_baserunning: o_fielding - 0.4', 'o_baserunning: o_fielding - 0.8', 'o_baserunning: o_fielding - 1.2', 'o_baserunning: o_fielding - 2', ],</v>
+        <v xml:space="preserve">        'o_support': ['o_fielding: o_support - 0.4', 'o_fielding: o_support - 0.8', 'o_fielding: o_support - 1.2', 'o_fielding: o_support - 2', ],</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="1"/>
-        <v>o_baserunning</v>
+        <v>o_fielding</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="2"/>
-        <v>o_tricky</v>
+        <v/>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_tricky - 0.4</v>
+        <v/>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_tricky - 0.8</v>
+        <v/>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_tricky - 1.2</v>
+        <v/>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_tricky - 2</v>
+        <v/>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="4"/>
@@ -13789,33 +13777,33 @@
       </c>
       <c r="M34" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_tricky': ['o_baserunning: o_tricky - 0.4', 'o_baserunning: o_tricky - 0.8', 'o_baserunning: o_tricky - 1.2', 'o_baserunning: o_tricky - 2', ],</v>
+        <v xml:space="preserve">    },</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="1"/>
-        <v>o_baserunning</v>
+        <v>o_fastball</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="2"/>
-        <v>o_fastball</v>
+        <v/>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_fastball - 0.4</v>
+        <v/>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_fastball - 0.8</v>
+        <v/>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_fastball - 1.2</v>
+        <v/>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_fastball - 2</v>
+        <v/>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="4"/>
@@ -13843,33 +13831,33 @@
       </c>
       <c r="M35" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_fastball': ['o_baserunning: o_fastball - 0.4', 'o_baserunning: o_fastball - 0.8', 'o_baserunning: o_fastball - 1.2', 'o_baserunning: o_fastball - 2', ],</v>
+        <v xml:space="preserve">    'o_fastball': {</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="1"/>
-        <v>o_baserunning</v>
+        <v>o_fastball</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="2"/>
-        <v>o_utility</v>
+        <v>o_power</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_utility - 0.4</v>
+        <v>o_fastball: o_power - 0.4</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_utility - 0.8</v>
+        <v>o_fastball: o_power - 0.8</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_utility - 1.2</v>
+        <v>o_fastball: o_power - 1.2</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_utility - 2</v>
+        <v>o_fastball: o_power - 2</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="4"/>
@@ -13897,7 +13885,7 @@
       </c>
       <c r="M36" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_utility': ['o_baserunning: o_utility - 0.4', 'o_baserunning: o_utility - 0.8', 'o_baserunning: o_utility - 1.2', 'o_baserunning: o_utility - 2', ],</v>
+        <v xml:space="preserve">        'o_power': ['o_fastball: o_power - 0.4', 'o_fastball: o_power - 0.8', 'o_fastball: o_power - 1.2', 'o_fastball: o_power - 2', ],</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -13907,7 +13895,7 @@
         IF(ROW()-ROW(start)&lt;(COUNTA(aspects)+1)^2+(COUNTA(aspects)+1),"All",""),
     INDEX(aspects,1,1+FLOOR((ROW()-ROW(start))/(COUNTA(aspects)+2),1))
 )</f>
-        <v>o_baserunning</v>
+        <v>o_fastball</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" ref="B37:B68" si="7">IF(
@@ -13921,23 +13909,23 @@
             (ROW()-ROW(start)-1),COUNTA(aspects)+2)
     )
 )</f>
-        <v>o_coach</v>
+        <v>o_smallball</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_coach - 0.4</v>
+        <v>o_fastball: o_smallball - 0.4</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_coach - 0.8</v>
+        <v>o_fastball: o_smallball - 0.8</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_coach - 1.2</v>
+        <v>o_fastball: o_smallball - 1.2</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="4"/>
-        <v>o_baserunning: o_coach - 2</v>
+        <v>o_fastball: o_smallball - 2</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="4"/>
@@ -13965,33 +13953,33 @@
       </c>
       <c r="M37" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_coach': ['o_baserunning: o_coach - 0.4', 'o_baserunning: o_coach - 0.8', 'o_baserunning: o_coach - 1.2', 'o_baserunning: o_coach - 2', ],</v>
+        <v xml:space="preserve">        'o_smallball': ['o_fastball: o_smallball - 0.4', 'o_fastball: o_smallball - 0.8', 'o_fastball: o_smallball - 1.2', 'o_fastball: o_smallball - 2', ],</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="6"/>
-        <v>o_baserunning</v>
+        <v>o_fastball</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="7"/>
-        <v>o_support</v>
+        <v>o_fielding</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" ref="C38:L63" si="8">IF(OR($B38="", C$4=""),"",CONCATENATE($A38,": ",$B38," - ",C$4))</f>
-        <v>o_baserunning: o_support - 0.4</v>
+        <v>o_fastball: o_fielding - 0.4</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="8"/>
-        <v>o_baserunning: o_support - 0.8</v>
+        <v>o_fastball: o_fielding - 0.8</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="8"/>
-        <v>o_baserunning: o_support - 1.2</v>
+        <v>o_fastball: o_fielding - 1.2</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="8"/>
-        <v>o_baserunning: o_support - 2</v>
+        <v>o_fastball: o_fielding - 2</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="8"/>
@@ -14019,33 +14007,33 @@
       </c>
       <c r="M38" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_support': ['o_baserunning: o_support - 0.4', 'o_baserunning: o_support - 0.8', 'o_baserunning: o_support - 1.2', 'o_baserunning: o_support - 2', ],</v>
+        <v xml:space="preserve">        'o_fielding': ['o_fastball: o_fielding - 0.4', 'o_fastball: o_fielding - 0.8', 'o_fastball: o_fielding - 1.2', 'o_fastball: o_fielding - 2', ],</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="6"/>
-        <v>o_baserunning</v>
+        <v>o_fastball</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="7"/>
-        <v>o_friend</v>
+        <v>o_fastball</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="8"/>
-        <v>o_baserunning: o_friend - 0.4</v>
+        <v>o_fastball: o_fastball - 0.4</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="8"/>
-        <v>o_baserunning: o_friend - 0.8</v>
+        <v>o_fastball: o_fastball - 0.8</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="8"/>
-        <v>o_baserunning: o_friend - 1.2</v>
+        <v>o_fastball: o_fastball - 1.2</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="8"/>
-        <v>o_baserunning: o_friend - 2</v>
+        <v>o_fastball: o_fastball - 2</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="8"/>
@@ -14073,33 +14061,33 @@
       </c>
       <c r="M39" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_friend': ['o_baserunning: o_friend - 0.4', 'o_baserunning: o_friend - 0.8', 'o_baserunning: o_friend - 1.2', 'o_baserunning: o_friend - 2', ],</v>
+        <v xml:space="preserve">        'o_fastball': ['o_fastball: o_fastball - 0.4', 'o_fastball: o_fastball - 0.8', 'o_fastball: o_fastball - 1.2', 'o_fastball: o_fastball - 2', ],</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="6"/>
-        <v>o_baserunning</v>
+        <v>o_fastball</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>o_tricky</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>o_fastball: o_tricky - 0.4</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>o_fastball: o_tricky - 0.8</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>o_fastball: o_tricky - 1.2</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>o_fastball: o_tricky - 2</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="8"/>
@@ -14127,33 +14115,33 @@
       </c>
       <c r="M40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">    },</v>
+        <v xml:space="preserve">        'o_tricky': ['o_fastball: o_tricky - 0.4', 'o_fastball: o_tricky - 0.8', 'o_fastball: o_tricky - 1.2', 'o_fastball: o_tricky - 2', ],</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="6"/>
-        <v>o_fielding</v>
+        <v>o_fastball</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>o_utility</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>o_fastball: o_utility - 0.4</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>o_fastball: o_utility - 0.8</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>o_fastball: o_utility - 1.2</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>o_fastball: o_utility - 2</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="8"/>
@@ -14181,33 +14169,33 @@
       </c>
       <c r="M41" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">    'o_fielding': {</v>
+        <v xml:space="preserve">        'o_utility': ['o_fastball: o_utility - 0.4', 'o_fastball: o_utility - 0.8', 'o_fastball: o_utility - 1.2', 'o_fastball: o_utility - 2', ],</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="6"/>
-        <v>o_fielding</v>
+        <v>o_fastball</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="7"/>
-        <v>o_slugging</v>
+        <v>o_coach</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_slugging - 0.4</v>
+        <v>o_fastball: o_coach - 0.4</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_slugging - 0.8</v>
+        <v>o_fastball: o_coach - 0.8</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_slugging - 1.2</v>
+        <v>o_fastball: o_coach - 1.2</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_slugging - 2</v>
+        <v>o_fastball: o_coach - 2</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="8"/>
@@ -14235,33 +14223,33 @@
       </c>
       <c r="M42" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_slugging': ['o_fielding: o_slugging - 0.4', 'o_fielding: o_slugging - 0.8', 'o_fielding: o_slugging - 1.2', 'o_fielding: o_slugging - 2', ],</v>
+        <v xml:space="preserve">        'o_coach': ['o_fastball: o_coach - 0.4', 'o_fastball: o_coach - 0.8', 'o_fastball: o_coach - 1.2', 'o_fastball: o_coach - 2', ],</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="6"/>
-        <v>o_fielding</v>
+        <v>o_fastball</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="7"/>
-        <v>o_smallball</v>
+        <v>o_support</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_smallball - 0.4</v>
+        <v>o_fastball: o_support - 0.4</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_smallball - 0.8</v>
+        <v>o_fastball: o_support - 0.8</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_smallball - 1.2</v>
+        <v>o_fastball: o_support - 1.2</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_smallball - 2</v>
+        <v>o_fastball: o_support - 2</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="8"/>
@@ -14289,33 +14277,33 @@
       </c>
       <c r="M43" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_smallball': ['o_fielding: o_smallball - 0.4', 'o_fielding: o_smallball - 0.8', 'o_fielding: o_smallball - 1.2', 'o_fielding: o_smallball - 2', ],</v>
+        <v xml:space="preserve">        'o_support': ['o_fastball: o_support - 0.4', 'o_fastball: o_support - 0.8', 'o_fastball: o_support - 1.2', 'o_fastball: o_support - 2', ],</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="6"/>
-        <v>o_fielding</v>
+        <v>o_fastball</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="7"/>
-        <v>o_baserunning</v>
+        <v/>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_baserunning - 0.4</v>
+        <v/>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_baserunning - 0.8</v>
+        <v/>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_baserunning - 1.2</v>
+        <v/>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_baserunning - 2</v>
+        <v/>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="8"/>
@@ -14343,33 +14331,33 @@
       </c>
       <c r="M44" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_baserunning': ['o_fielding: o_baserunning - 0.4', 'o_fielding: o_baserunning - 0.8', 'o_fielding: o_baserunning - 1.2', 'o_fielding: o_baserunning - 2', ],</v>
+        <v xml:space="preserve">    },</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="6"/>
-        <v>o_fielding</v>
+        <v>o_tricky</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="7"/>
-        <v>o_fielding</v>
+        <v/>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_fielding - 0.4</v>
+        <v/>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_fielding - 0.8</v>
+        <v/>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_fielding - 1.2</v>
+        <v/>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_fielding - 2</v>
+        <v/>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="8"/>
@@ -14397,33 +14385,33 @@
       </c>
       <c r="M45" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_fielding': ['o_fielding: o_fielding - 0.4', 'o_fielding: o_fielding - 0.8', 'o_fielding: o_fielding - 1.2', 'o_fielding: o_fielding - 2', ],</v>
+        <v xml:space="preserve">    'o_tricky': {</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="6"/>
-        <v>o_fielding</v>
+        <v>o_tricky</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="7"/>
-        <v>o_tricky</v>
+        <v>o_power</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_tricky - 0.4</v>
+        <v>o_tricky: o_power - 0.4</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_tricky - 0.8</v>
+        <v>o_tricky: o_power - 0.8</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_tricky - 1.2</v>
+        <v>o_tricky: o_power - 1.2</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_tricky - 2</v>
+        <v>o_tricky: o_power - 2</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="8"/>
@@ -14451,33 +14439,33 @@
       </c>
       <c r="M46" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_tricky': ['o_fielding: o_tricky - 0.4', 'o_fielding: o_tricky - 0.8', 'o_fielding: o_tricky - 1.2', 'o_fielding: o_tricky - 2', ],</v>
+        <v xml:space="preserve">        'o_power': ['o_tricky: o_power - 0.4', 'o_tricky: o_power - 0.8', 'o_tricky: o_power - 1.2', 'o_tricky: o_power - 2', ],</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="6"/>
-        <v>o_fielding</v>
+        <v>o_tricky</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="7"/>
-        <v>o_fastball</v>
+        <v>o_smallball</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_fastball - 0.4</v>
+        <v>o_tricky: o_smallball - 0.4</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_fastball - 0.8</v>
+        <v>o_tricky: o_smallball - 0.8</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_fastball - 1.2</v>
+        <v>o_tricky: o_smallball - 1.2</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_fastball - 2</v>
+        <v>o_tricky: o_smallball - 2</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="8"/>
@@ -14505,33 +14493,33 @@
       </c>
       <c r="M47" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_fastball': ['o_fielding: o_fastball - 0.4', 'o_fielding: o_fastball - 0.8', 'o_fielding: o_fastball - 1.2', 'o_fielding: o_fastball - 2', ],</v>
+        <v xml:space="preserve">        'o_smallball': ['o_tricky: o_smallball - 0.4', 'o_tricky: o_smallball - 0.8', 'o_tricky: o_smallball - 1.2', 'o_tricky: o_smallball - 2', ],</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="6"/>
-        <v>o_fielding</v>
+        <v>o_tricky</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="7"/>
-        <v>o_utility</v>
+        <v>o_fielding</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_utility - 0.4</v>
+        <v>o_tricky: o_fielding - 0.4</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_utility - 0.8</v>
+        <v>o_tricky: o_fielding - 0.8</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_utility - 1.2</v>
+        <v>o_tricky: o_fielding - 1.2</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_utility - 2</v>
+        <v>o_tricky: o_fielding - 2</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="8"/>
@@ -14559,33 +14547,33 @@
       </c>
       <c r="M48" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_utility': ['o_fielding: o_utility - 0.4', 'o_fielding: o_utility - 0.8', 'o_fielding: o_utility - 1.2', 'o_fielding: o_utility - 2', ],</v>
+        <v xml:space="preserve">        'o_fielding': ['o_tricky: o_fielding - 0.4', 'o_tricky: o_fielding - 0.8', 'o_tricky: o_fielding - 1.2', 'o_tricky: o_fielding - 2', ],</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="6"/>
-        <v>o_fielding</v>
+        <v>o_tricky</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="7"/>
-        <v>o_coach</v>
+        <v>o_fastball</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_coach - 0.4</v>
+        <v>o_tricky: o_fastball - 0.4</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_coach - 0.8</v>
+        <v>o_tricky: o_fastball - 0.8</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_coach - 1.2</v>
+        <v>o_tricky: o_fastball - 1.2</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_coach - 2</v>
+        <v>o_tricky: o_fastball - 2</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="8"/>
@@ -14613,33 +14601,33 @@
       </c>
       <c r="M49" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_coach': ['o_fielding: o_coach - 0.4', 'o_fielding: o_coach - 0.8', 'o_fielding: o_coach - 1.2', 'o_fielding: o_coach - 2', ],</v>
+        <v xml:space="preserve">        'o_fastball': ['o_tricky: o_fastball - 0.4', 'o_tricky: o_fastball - 0.8', 'o_tricky: o_fastball - 1.2', 'o_tricky: o_fastball - 2', ],</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="6"/>
-        <v>o_fielding</v>
+        <v>o_tricky</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="7"/>
-        <v>o_support</v>
+        <v>o_tricky</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_support - 0.4</v>
+        <v>o_tricky: o_tricky - 0.4</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_support - 0.8</v>
+        <v>o_tricky: o_tricky - 0.8</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_support - 1.2</v>
+        <v>o_tricky: o_tricky - 1.2</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_support - 2</v>
+        <v>o_tricky: o_tricky - 2</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="8"/>
@@ -14667,33 +14655,33 @@
       </c>
       <c r="M50" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_support': ['o_fielding: o_support - 0.4', 'o_fielding: o_support - 0.8', 'o_fielding: o_support - 1.2', 'o_fielding: o_support - 2', ],</v>
+        <v xml:space="preserve">        'o_tricky': ['o_tricky: o_tricky - 0.4', 'o_tricky: o_tricky - 0.8', 'o_tricky: o_tricky - 1.2', 'o_tricky: o_tricky - 2', ],</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="6"/>
-        <v>o_fielding</v>
+        <v>o_tricky</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="7"/>
-        <v>o_friend</v>
+        <v>o_utility</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_friend - 0.4</v>
+        <v>o_tricky: o_utility - 0.4</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_friend - 0.8</v>
+        <v>o_tricky: o_utility - 0.8</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_friend - 1.2</v>
+        <v>o_tricky: o_utility - 1.2</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="8"/>
-        <v>o_fielding: o_friend - 2</v>
+        <v>o_tricky: o_utility - 2</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="8"/>
@@ -14721,33 +14709,33 @@
       </c>
       <c r="M51" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_friend': ['o_fielding: o_friend - 0.4', 'o_fielding: o_friend - 0.8', 'o_fielding: o_friend - 1.2', 'o_fielding: o_friend - 2', ],</v>
+        <v xml:space="preserve">        'o_utility': ['o_tricky: o_utility - 0.4', 'o_tricky: o_utility - 0.8', 'o_tricky: o_utility - 1.2', 'o_tricky: o_utility - 2', ],</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="6"/>
-        <v>o_fielding</v>
+        <v>o_tricky</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>o_coach</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>o_tricky: o_coach - 0.4</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>o_tricky: o_coach - 0.8</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>o_tricky: o_coach - 1.2</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>o_tricky: o_coach - 2</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="8"/>
@@ -14775,7 +14763,7 @@
       </c>
       <c r="M52" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">    },</v>
+        <v xml:space="preserve">        'o_coach': ['o_tricky: o_coach - 0.4', 'o_tricky: o_coach - 0.8', 'o_tricky: o_coach - 1.2', 'o_tricky: o_coach - 2', ],</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -14785,23 +14773,23 @@
       </c>
       <c r="B53" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>o_support</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>o_tricky: o_support - 0.4</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>o_tricky: o_support - 0.8</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>o_tricky: o_support - 1.2</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>o_tricky: o_support - 2</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="8"/>
@@ -14829,7 +14817,7 @@
       </c>
       <c r="M53" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">    'o_tricky': {</v>
+        <v xml:space="preserve">        'o_support': ['o_tricky: o_support - 0.4', 'o_tricky: o_support - 0.8', 'o_tricky: o_support - 1.2', 'o_tricky: o_support - 2', ],</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -14839,23 +14827,23 @@
       </c>
       <c r="B54" t="str">
         <f t="shared" si="7"/>
-        <v>o_slugging</v>
+        <v/>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_slugging - 0.4</v>
+        <v/>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_slugging - 0.8</v>
+        <v/>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_slugging - 1.2</v>
+        <v/>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_slugging - 2</v>
+        <v/>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="8"/>
@@ -14883,33 +14871,33 @@
       </c>
       <c r="M54" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_slugging': ['o_tricky: o_slugging - 0.4', 'o_tricky: o_slugging - 0.8', 'o_tricky: o_slugging - 1.2', 'o_tricky: o_slugging - 2', ],</v>
+        <v xml:space="preserve">    },</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="6"/>
-        <v>o_tricky</v>
+        <v>o_utility</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="7"/>
-        <v>o_smallball</v>
+        <v/>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_smallball - 0.4</v>
+        <v/>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_smallball - 0.8</v>
+        <v/>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_smallball - 1.2</v>
+        <v/>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_smallball - 2</v>
+        <v/>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="8"/>
@@ -14937,33 +14925,33 @@
       </c>
       <c r="M55" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_smallball': ['o_tricky: o_smallball - 0.4', 'o_tricky: o_smallball - 0.8', 'o_tricky: o_smallball - 1.2', 'o_tricky: o_smallball - 2', ],</v>
+        <v xml:space="preserve">    'o_utility': {</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="6"/>
-        <v>o_tricky</v>
+        <v>o_utility</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="7"/>
-        <v>o_baserunning</v>
+        <v>o_power</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_baserunning - 0.4</v>
+        <v>o_utility: o_power - 0.4</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_baserunning - 0.8</v>
+        <v>o_utility: o_power - 0.8</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_baserunning - 1.2</v>
+        <v>o_utility: o_power - 1.2</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_baserunning - 2</v>
+        <v>o_utility: o_power - 2</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="8"/>
@@ -14991,33 +14979,33 @@
       </c>
       <c r="M56" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_baserunning': ['o_tricky: o_baserunning - 0.4', 'o_tricky: o_baserunning - 0.8', 'o_tricky: o_baserunning - 1.2', 'o_tricky: o_baserunning - 2', ],</v>
+        <v xml:space="preserve">        'o_power': ['o_utility: o_power - 0.4', 'o_utility: o_power - 0.8', 'o_utility: o_power - 1.2', 'o_utility: o_power - 2', ],</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="6"/>
-        <v>o_tricky</v>
+        <v>o_utility</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="7"/>
-        <v>o_fielding</v>
+        <v>o_smallball</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_fielding - 0.4</v>
+        <v>o_utility: o_smallball - 0.4</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_fielding - 0.8</v>
+        <v>o_utility: o_smallball - 0.8</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_fielding - 1.2</v>
+        <v>o_utility: o_smallball - 1.2</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_fielding - 2</v>
+        <v>o_utility: o_smallball - 2</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="8"/>
@@ -15045,33 +15033,33 @@
       </c>
       <c r="M57" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_fielding': ['o_tricky: o_fielding - 0.4', 'o_tricky: o_fielding - 0.8', 'o_tricky: o_fielding - 1.2', 'o_tricky: o_fielding - 2', ],</v>
+        <v xml:space="preserve">        'o_smallball': ['o_utility: o_smallball - 0.4', 'o_utility: o_smallball - 0.8', 'o_utility: o_smallball - 1.2', 'o_utility: o_smallball - 2', ],</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="6"/>
-        <v>o_tricky</v>
+        <v>o_utility</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="7"/>
-        <v>o_tricky</v>
+        <v>o_fielding</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_tricky - 0.4</v>
+        <v>o_utility: o_fielding - 0.4</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_tricky - 0.8</v>
+        <v>o_utility: o_fielding - 0.8</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_tricky - 1.2</v>
+        <v>o_utility: o_fielding - 1.2</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_tricky - 2</v>
+        <v>o_utility: o_fielding - 2</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="8"/>
@@ -15099,13 +15087,13 @@
       </c>
       <c r="M58" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_tricky': ['o_tricky: o_tricky - 0.4', 'o_tricky: o_tricky - 0.8', 'o_tricky: o_tricky - 1.2', 'o_tricky: o_tricky - 2', ],</v>
+        <v xml:space="preserve">        'o_fielding': ['o_utility: o_fielding - 0.4', 'o_utility: o_fielding - 0.8', 'o_utility: o_fielding - 1.2', 'o_utility: o_fielding - 2', ],</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="6"/>
-        <v>o_tricky</v>
+        <v>o_utility</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="7"/>
@@ -15113,19 +15101,19 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_fastball - 0.4</v>
+        <v>o_utility: o_fastball - 0.4</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_fastball - 0.8</v>
+        <v>o_utility: o_fastball - 0.8</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_fastball - 1.2</v>
+        <v>o_utility: o_fastball - 1.2</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_fastball - 2</v>
+        <v>o_utility: o_fastball - 2</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="8"/>
@@ -15153,33 +15141,33 @@
       </c>
       <c r="M59" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_fastball': ['o_tricky: o_fastball - 0.4', 'o_tricky: o_fastball - 0.8', 'o_tricky: o_fastball - 1.2', 'o_tricky: o_fastball - 2', ],</v>
+        <v xml:space="preserve">        'o_fastball': ['o_utility: o_fastball - 0.4', 'o_utility: o_fastball - 0.8', 'o_utility: o_fastball - 1.2', 'o_utility: o_fastball - 2', ],</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="6"/>
-        <v>o_tricky</v>
+        <v>o_utility</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="7"/>
-        <v>o_utility</v>
+        <v>o_tricky</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_utility - 0.4</v>
+        <v>o_utility: o_tricky - 0.4</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_utility - 0.8</v>
+        <v>o_utility: o_tricky - 0.8</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_utility - 1.2</v>
+        <v>o_utility: o_tricky - 1.2</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_utility - 2</v>
+        <v>o_utility: o_tricky - 2</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="8"/>
@@ -15207,33 +15195,33 @@
       </c>
       <c r="M60" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_utility': ['o_tricky: o_utility - 0.4', 'o_tricky: o_utility - 0.8', 'o_tricky: o_utility - 1.2', 'o_tricky: o_utility - 2', ],</v>
+        <v xml:space="preserve">        'o_tricky': ['o_utility: o_tricky - 0.4', 'o_utility: o_tricky - 0.8', 'o_utility: o_tricky - 1.2', 'o_utility: o_tricky - 2', ],</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="6"/>
-        <v>o_tricky</v>
+        <v>o_utility</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="7"/>
-        <v>o_coach</v>
+        <v>o_utility</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_coach - 0.4</v>
+        <v>o_utility: o_utility - 0.4</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_coach - 0.8</v>
+        <v>o_utility: o_utility - 0.8</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_coach - 1.2</v>
+        <v>o_utility: o_utility - 1.2</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_coach - 2</v>
+        <v>o_utility: o_utility - 2</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="8"/>
@@ -15261,33 +15249,33 @@
       </c>
       <c r="M61" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_coach': ['o_tricky: o_coach - 0.4', 'o_tricky: o_coach - 0.8', 'o_tricky: o_coach - 1.2', 'o_tricky: o_coach - 2', ],</v>
+        <v xml:space="preserve">        'o_utility': ['o_utility: o_utility - 0.4', 'o_utility: o_utility - 0.8', 'o_utility: o_utility - 1.2', 'o_utility: o_utility - 2', ],</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="6"/>
-        <v>o_tricky</v>
+        <v>o_utility</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="7"/>
-        <v>o_support</v>
+        <v>o_coach</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_support - 0.4</v>
+        <v>o_utility: o_coach - 0.4</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_support - 0.8</v>
+        <v>o_utility: o_coach - 0.8</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_support - 1.2</v>
+        <v>o_utility: o_coach - 1.2</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_support - 2</v>
+        <v>o_utility: o_coach - 2</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="8"/>
@@ -15315,33 +15303,33 @@
       </c>
       <c r="M62" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_support': ['o_tricky: o_support - 0.4', 'o_tricky: o_support - 0.8', 'o_tricky: o_support - 1.2', 'o_tricky: o_support - 2', ],</v>
+        <v xml:space="preserve">        'o_coach': ['o_utility: o_coach - 0.4', 'o_utility: o_coach - 0.8', 'o_utility: o_coach - 1.2', 'o_utility: o_coach - 2', ],</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="6"/>
-        <v>o_tricky</v>
+        <v>o_utility</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="7"/>
-        <v>o_friend</v>
+        <v>o_support</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_friend - 0.4</v>
+        <v>o_utility: o_support - 0.4</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_friend - 0.8</v>
+        <v>o_utility: o_support - 0.8</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_friend - 1.2</v>
+        <v>o_utility: o_support - 1.2</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="8"/>
-        <v>o_tricky: o_friend - 2</v>
+        <v>o_utility: o_support - 2</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="8"/>
@@ -15369,13 +15357,13 @@
       </c>
       <c r="M63" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_friend': ['o_tricky: o_friend - 0.4', 'o_tricky: o_friend - 0.8', 'o_tricky: o_friend - 1.2', 'o_tricky: o_friend - 2', ],</v>
+        <v xml:space="preserve">        'o_support': ['o_utility: o_support - 0.4', 'o_utility: o_support - 0.8', 'o_utility: o_support - 1.2', 'o_utility: o_support - 2', ],</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="6"/>
-        <v>o_tricky</v>
+        <v>o_utility</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="7"/>
@@ -15429,7 +15417,7 @@
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="6"/>
-        <v>o_fastball</v>
+        <v>o_coach</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="7"/>
@@ -15477,33 +15465,33 @@
       </c>
       <c r="M65" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">    'o_fastball': {</v>
+        <v xml:space="preserve">    'o_coach': {</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="6"/>
-        <v>o_fastball</v>
+        <v>o_coach</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="7"/>
-        <v>o_slugging</v>
+        <v>o_power</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="10"/>
-        <v>o_fastball: o_slugging - 0.4</v>
+        <v>o_coach: o_power - 0.4</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_slugging - 0.8</v>
+        <v>o_coach: o_power - 0.8</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_slugging - 1.2</v>
+        <v>o_coach: o_power - 1.2</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_slugging - 2</v>
+        <v>o_coach: o_power - 2</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="9"/>
@@ -15531,13 +15519,13 @@
       </c>
       <c r="M66" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_slugging': ['o_fastball: o_slugging - 0.4', 'o_fastball: o_slugging - 0.8', 'o_fastball: o_slugging - 1.2', 'o_fastball: o_slugging - 2', ],</v>
+        <v xml:space="preserve">        'o_power': ['o_coach: o_power - 0.4', 'o_coach: o_power - 0.8', 'o_coach: o_power - 1.2', 'o_coach: o_power - 2', ],</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="6"/>
-        <v>o_fastball</v>
+        <v>o_coach</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="7"/>
@@ -15545,19 +15533,19 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" si="10"/>
-        <v>o_fastball: o_smallball - 0.4</v>
+        <v>o_coach: o_smallball - 0.4</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_smallball - 0.8</v>
+        <v>o_coach: o_smallball - 0.8</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_smallball - 1.2</v>
+        <v>o_coach: o_smallball - 1.2</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_smallball - 2</v>
+        <v>o_coach: o_smallball - 2</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="9"/>
@@ -15585,33 +15573,33 @@
       </c>
       <c r="M67" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_smallball': ['o_fastball: o_smallball - 0.4', 'o_fastball: o_smallball - 0.8', 'o_fastball: o_smallball - 1.2', 'o_fastball: o_smallball - 2', ],</v>
+        <v xml:space="preserve">        'o_smallball': ['o_coach: o_smallball - 0.4', 'o_coach: o_smallball - 0.8', 'o_coach: o_smallball - 1.2', 'o_coach: o_smallball - 2', ],</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="6"/>
-        <v>o_fastball</v>
+        <v>o_coach</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="7"/>
-        <v>o_baserunning</v>
+        <v>o_fielding</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="10"/>
-        <v>o_fastball: o_baserunning - 0.4</v>
+        <v>o_coach: o_fielding - 0.4</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_baserunning - 0.8</v>
+        <v>o_coach: o_fielding - 0.8</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_baserunning - 1.2</v>
+        <v>o_coach: o_fielding - 1.2</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_baserunning - 2</v>
+        <v>o_coach: o_fielding - 2</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="9"/>
@@ -15639,7 +15627,7 @@
       </c>
       <c r="M68" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_baserunning': ['o_fastball: o_baserunning - 0.4', 'o_fastball: o_baserunning - 0.8', 'o_fastball: o_baserunning - 1.2', 'o_fastball: o_baserunning - 2', ],</v>
+        <v xml:space="preserve">        'o_fielding': ['o_coach: o_fielding - 0.4', 'o_coach: o_fielding - 0.8', 'o_coach: o_fielding - 1.2', 'o_coach: o_fielding - 2', ],</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -15649,7 +15637,7 @@
         IF(ROW()-ROW(start)&lt;(COUNTA(aspects)+1)^2+(COUNTA(aspects)+1),"All",""),
     INDEX(aspects,1,1+FLOOR((ROW()-ROW(start))/(COUNTA(aspects)+2),1))
 )</f>
-        <v>o_fastball</v>
+        <v>o_coach</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" ref="B69:B127" si="12">IF(
@@ -15663,23 +15651,23 @@
             (ROW()-ROW(start)-1),COUNTA(aspects)+2)
     )
 )</f>
-        <v>o_fielding</v>
+        <v>o_fastball</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="10"/>
-        <v>o_fastball: o_fielding - 0.4</v>
+        <v>o_coach: o_fastball - 0.4</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_fielding - 0.8</v>
+        <v>o_coach: o_fastball - 0.8</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_fielding - 1.2</v>
+        <v>o_coach: o_fastball - 1.2</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_fielding - 2</v>
+        <v>o_coach: o_fastball - 2</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="9"/>
@@ -15707,13 +15695,13 @@
       </c>
       <c r="M69" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">        'o_fielding': ['o_fastball: o_fielding - 0.4', 'o_fastball: o_fielding - 0.8', 'o_fastball: o_fielding - 1.2', 'o_fastball: o_fielding - 2', ],</v>
+        <v xml:space="preserve">        'o_fastball': ['o_coach: o_fastball - 0.4', 'o_coach: o_fastball - 0.8', 'o_coach: o_fastball - 1.2', 'o_coach: o_fastball - 2', ],</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="11"/>
-        <v>o_fastball</v>
+        <v>o_coach</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="12"/>
@@ -15721,19 +15709,19 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" si="10"/>
-        <v>o_fastball: o_tricky - 0.4</v>
+        <v>o_coach: o_tricky - 0.4</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_tricky - 0.8</v>
+        <v>o_coach: o_tricky - 0.8</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_tricky - 1.2</v>
+        <v>o_coach: o_tricky - 1.2</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_tricky - 2</v>
+        <v>o_coach: o_tricky - 2</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="9"/>
@@ -15764,33 +15752,33 @@
 IF(B71="",IF(B69="","","    },"),
 CONCATENATE("    ","'",A70,"': {")),
 CONCATENATE("        ","'",B70,"': [",IF(C70="","","'"&amp;C70&amp;"',"),IF(D70="",""," '"&amp;D70&amp;"',"),IF(E70="",""," '"&amp;E70&amp;"',"),IF(F70="",""," '"&amp;F70&amp;"',"),IF(G70="",""," '"&amp;G70&amp;"',"),IF(H70="",""," '"&amp;H70&amp;"',"),IF(I70="",""," '"&amp;I70&amp;"',"),IF(J70="",""," '"&amp;J70&amp;"',"),IF(K70="",""," '"&amp;K70&amp;"',"),IF(L70="",""," '"&amp;L70&amp;"',")," ],"))</f>
-        <v xml:space="preserve">        'o_tricky': ['o_fastball: o_tricky - 0.4', 'o_fastball: o_tricky - 0.8', 'o_fastball: o_tricky - 1.2', 'o_fastball: o_tricky - 2', ],</v>
+        <v xml:space="preserve">        'o_tricky': ['o_coach: o_tricky - 0.4', 'o_coach: o_tricky - 0.8', 'o_coach: o_tricky - 1.2', 'o_coach: o_tricky - 2', ],</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="11"/>
-        <v>o_fastball</v>
+        <v>o_coach</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="12"/>
-        <v>o_fastball</v>
+        <v>o_utility</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="10"/>
-        <v>o_fastball: o_fastball - 0.4</v>
+        <v>o_coach: o_utility - 0.4</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_fastball - 0.8</v>
+        <v>o_coach: o_utility - 0.8</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_fastball - 1.2</v>
+        <v>o_coach: o_utility - 1.2</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_fastball - 2</v>
+        <v>o_coach: o_utility - 2</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="9"/>
@@ -15818,33 +15806,33 @@
       </c>
       <c r="M71" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_fastball': ['o_fastball: o_fastball - 0.4', 'o_fastball: o_fastball - 0.8', 'o_fastball: o_fastball - 1.2', 'o_fastball: o_fastball - 2', ],</v>
+        <v xml:space="preserve">        'o_utility': ['o_coach: o_utility - 0.4', 'o_coach: o_utility - 0.8', 'o_coach: o_utility - 1.2', 'o_coach: o_utility - 2', ],</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="11"/>
-        <v>o_fastball</v>
+        <v>o_coach</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="12"/>
-        <v>o_utility</v>
+        <v>o_coach</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="10"/>
-        <v>o_fastball: o_utility - 0.4</v>
+        <v>o_coach: o_coach - 0.4</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_utility - 0.8</v>
+        <v>o_coach: o_coach - 0.8</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_utility - 1.2</v>
+        <v>o_coach: o_coach - 1.2</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_utility - 2</v>
+        <v>o_coach: o_coach - 2</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="9"/>
@@ -15872,33 +15860,33 @@
       </c>
       <c r="M72" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_utility': ['o_fastball: o_utility - 0.4', 'o_fastball: o_utility - 0.8', 'o_fastball: o_utility - 1.2', 'o_fastball: o_utility - 2', ],</v>
+        <v xml:space="preserve">        'o_coach': ['o_coach: o_coach - 0.4', 'o_coach: o_coach - 0.8', 'o_coach: o_coach - 1.2', 'o_coach: o_coach - 2', ],</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="11"/>
-        <v>o_fastball</v>
+        <v>o_coach</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="12"/>
-        <v>o_coach</v>
+        <v>o_support</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="10"/>
-        <v>o_fastball: o_coach - 0.4</v>
+        <v>o_coach: o_support - 0.4</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_coach - 0.8</v>
+        <v>o_coach: o_support - 0.8</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_coach - 1.2</v>
+        <v>o_coach: o_support - 1.2</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_coach - 2</v>
+        <v>o_coach: o_support - 2</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="9"/>
@@ -15926,33 +15914,33 @@
       </c>
       <c r="M73" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_coach': ['o_fastball: o_coach - 0.4', 'o_fastball: o_coach - 0.8', 'o_fastball: o_coach - 1.2', 'o_fastball: o_coach - 2', ],</v>
+        <v xml:space="preserve">        'o_support': ['o_coach: o_support - 0.4', 'o_coach: o_support - 0.8', 'o_coach: o_support - 1.2', 'o_coach: o_support - 2', ],</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="11"/>
-        <v>o_fastball</v>
+        <v>o_coach</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="12"/>
-        <v>o_support</v>
+        <v/>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="10"/>
-        <v>o_fastball: o_support - 0.4</v>
+        <v/>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_support - 0.8</v>
+        <v/>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_support - 1.2</v>
+        <v/>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_support - 2</v>
+        <v/>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="9"/>
@@ -15980,33 +15968,33 @@
       </c>
       <c r="M74" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_support': ['o_fastball: o_support - 0.4', 'o_fastball: o_support - 0.8', 'o_fastball: o_support - 1.2', 'o_fastball: o_support - 2', ],</v>
+        <v xml:space="preserve">    },</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="11"/>
-        <v>o_fastball</v>
+        <v>o_support</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="12"/>
-        <v>o_friend</v>
+        <v/>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="10"/>
-        <v>o_fastball: o_friend - 0.4</v>
+        <v/>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_friend - 0.8</v>
+        <v/>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_friend - 1.2</v>
+        <v/>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="9"/>
-        <v>o_fastball: o_friend - 2</v>
+        <v/>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="9"/>
@@ -16034,33 +16022,33 @@
       </c>
       <c r="M75" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_friend': ['o_fastball: o_friend - 0.4', 'o_fastball: o_friend - 0.8', 'o_fastball: o_friend - 1.2', 'o_fastball: o_friend - 2', ],</v>
+        <v xml:space="preserve">    'o_support': {</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="11"/>
-        <v>o_fastball</v>
+        <v>o_support</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>o_power</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>o_support: o_power - 0.4</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>o_support: o_power - 0.8</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>o_support: o_power - 1.2</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>o_support: o_power - 2</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="9"/>
@@ -16088,33 +16076,33 @@
       </c>
       <c r="M76" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">    },</v>
+        <v xml:space="preserve">        'o_power': ['o_support: o_power - 0.4', 'o_support: o_power - 0.8', 'o_support: o_power - 1.2', 'o_support: o_power - 2', ],</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="11"/>
-        <v>o_utility</v>
+        <v>o_support</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>o_smallball</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>o_support: o_smallball - 0.4</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>o_support: o_smallball - 0.8</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>o_support: o_smallball - 1.2</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>o_support: o_smallball - 2</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="9"/>
@@ -16142,33 +16130,33 @@
       </c>
       <c r="M77" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">    'o_utility': {</v>
+        <v xml:space="preserve">        'o_smallball': ['o_support: o_smallball - 0.4', 'o_support: o_smallball - 0.8', 'o_support: o_smallball - 1.2', 'o_support: o_smallball - 2', ],</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="11"/>
-        <v>o_utility</v>
+        <v>o_support</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="12"/>
-        <v>o_slugging</v>
+        <v>o_fielding</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="10"/>
-        <v>o_utility: o_slugging - 0.4</v>
+        <v>o_support: o_fielding - 0.4</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_slugging - 0.8</v>
+        <v>o_support: o_fielding - 0.8</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_slugging - 1.2</v>
+        <v>o_support: o_fielding - 1.2</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_slugging - 2</v>
+        <v>o_support: o_fielding - 2</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="9"/>
@@ -16196,33 +16184,33 @@
       </c>
       <c r="M78" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_slugging': ['o_utility: o_slugging - 0.4', 'o_utility: o_slugging - 0.8', 'o_utility: o_slugging - 1.2', 'o_utility: o_slugging - 2', ],</v>
+        <v xml:space="preserve">        'o_fielding': ['o_support: o_fielding - 0.4', 'o_support: o_fielding - 0.8', 'o_support: o_fielding - 1.2', 'o_support: o_fielding - 2', ],</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="11"/>
-        <v>o_utility</v>
+        <v>o_support</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="12"/>
-        <v>o_smallball</v>
+        <v>o_fastball</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="10"/>
-        <v>o_utility: o_smallball - 0.4</v>
+        <v>o_support: o_fastball - 0.4</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_smallball - 0.8</v>
+        <v>o_support: o_fastball - 0.8</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_smallball - 1.2</v>
+        <v>o_support: o_fastball - 1.2</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_smallball - 2</v>
+        <v>o_support: o_fastball - 2</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="9"/>
@@ -16250,33 +16238,33 @@
       </c>
       <c r="M79" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_smallball': ['o_utility: o_smallball - 0.4', 'o_utility: o_smallball - 0.8', 'o_utility: o_smallball - 1.2', 'o_utility: o_smallball - 2', ],</v>
+        <v xml:space="preserve">        'o_fastball': ['o_support: o_fastball - 0.4', 'o_support: o_fastball - 0.8', 'o_support: o_fastball - 1.2', 'o_support: o_fastball - 2', ],</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="11"/>
-        <v>o_utility</v>
+        <v>o_support</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="12"/>
-        <v>o_baserunning</v>
+        <v>o_tricky</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="10"/>
-        <v>o_utility: o_baserunning - 0.4</v>
+        <v>o_support: o_tricky - 0.4</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_baserunning - 0.8</v>
+        <v>o_support: o_tricky - 0.8</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_baserunning - 1.2</v>
+        <v>o_support: o_tricky - 1.2</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_baserunning - 2</v>
+        <v>o_support: o_tricky - 2</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="9"/>
@@ -16304,33 +16292,33 @@
       </c>
       <c r="M80" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_baserunning': ['o_utility: o_baserunning - 0.4', 'o_utility: o_baserunning - 0.8', 'o_utility: o_baserunning - 1.2', 'o_utility: o_baserunning - 2', ],</v>
+        <v xml:space="preserve">        'o_tricky': ['o_support: o_tricky - 0.4', 'o_support: o_tricky - 0.8', 'o_support: o_tricky - 1.2', 'o_support: o_tricky - 2', ],</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="11"/>
-        <v>o_utility</v>
+        <v>o_support</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="12"/>
-        <v>o_fielding</v>
+        <v>o_utility</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="10"/>
-        <v>o_utility: o_fielding - 0.4</v>
+        <v>o_support: o_utility - 0.4</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_fielding - 0.8</v>
+        <v>o_support: o_utility - 0.8</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_fielding - 1.2</v>
+        <v>o_support: o_utility - 1.2</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_fielding - 2</v>
+        <v>o_support: o_utility - 2</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="9"/>
@@ -16358,33 +16346,33 @@
       </c>
       <c r="M81" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_fielding': ['o_utility: o_fielding - 0.4', 'o_utility: o_fielding - 0.8', 'o_utility: o_fielding - 1.2', 'o_utility: o_fielding - 2', ],</v>
+        <v xml:space="preserve">        'o_utility': ['o_support: o_utility - 0.4', 'o_support: o_utility - 0.8', 'o_support: o_utility - 1.2', 'o_support: o_utility - 2', ],</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="11"/>
-        <v>o_utility</v>
+        <v>o_support</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="12"/>
-        <v>o_tricky</v>
+        <v>o_coach</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="10"/>
-        <v>o_utility: o_tricky - 0.4</v>
+        <v>o_support: o_coach - 0.4</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_tricky - 0.8</v>
+        <v>o_support: o_coach - 0.8</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_tricky - 1.2</v>
+        <v>o_support: o_coach - 1.2</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_tricky - 2</v>
+        <v>o_support: o_coach - 2</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="9"/>
@@ -16412,33 +16400,33 @@
       </c>
       <c r="M82" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_tricky': ['o_utility: o_tricky - 0.4', 'o_utility: o_tricky - 0.8', 'o_utility: o_tricky - 1.2', 'o_utility: o_tricky - 2', ],</v>
+        <v xml:space="preserve">        'o_coach': ['o_support: o_coach - 0.4', 'o_support: o_coach - 0.8', 'o_support: o_coach - 1.2', 'o_support: o_coach - 2', ],</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="11"/>
-        <v>o_utility</v>
+        <v>o_support</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="12"/>
-        <v>o_fastball</v>
+        <v>o_support</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="10"/>
-        <v>o_utility: o_fastball - 0.4</v>
+        <v>o_support: o_support - 0.4</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_fastball - 0.8</v>
+        <v>o_support: o_support - 0.8</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_fastball - 1.2</v>
+        <v>o_support: o_support - 1.2</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_fastball - 2</v>
+        <v>o_support: o_support - 2</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="9"/>
@@ -16466,33 +16454,33 @@
       </c>
       <c r="M83" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_fastball': ['o_utility: o_fastball - 0.4', 'o_utility: o_fastball - 0.8', 'o_utility: o_fastball - 1.2', 'o_utility: o_fastball - 2', ],</v>
+        <v xml:space="preserve">        'o_support': ['o_support: o_support - 0.4', 'o_support: o_support - 0.8', 'o_support: o_support - 1.2', 'o_support: o_support - 2', ],</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="11"/>
-        <v>o_utility</v>
+        <v>o_support</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="12"/>
-        <v>o_utility</v>
+        <v/>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="10"/>
-        <v>o_utility: o_utility - 0.4</v>
+        <v/>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_utility - 0.8</v>
+        <v/>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_utility - 1.2</v>
+        <v/>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_utility - 2</v>
+        <v/>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="9"/>
@@ -16520,33 +16508,33 @@
       </c>
       <c r="M84" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_utility': ['o_utility: o_utility - 0.4', 'o_utility: o_utility - 0.8', 'o_utility: o_utility - 1.2', 'o_utility: o_utility - 2', ],</v>
+        <v xml:space="preserve">    },</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="11"/>
-        <v>o_utility</v>
+        <v>All</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="12"/>
-        <v>o_coach</v>
+        <v/>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="10"/>
-        <v>o_utility: o_coach - 0.4</v>
+        <v/>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_coach - 0.8</v>
+        <v/>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_coach - 1.2</v>
+        <v/>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_coach - 2</v>
+        <v/>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="9"/>
@@ -16574,33 +16562,33 @@
       </c>
       <c r="M85" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_coach': ['o_utility: o_coach - 0.4', 'o_utility: o_coach - 0.8', 'o_utility: o_coach - 1.2', 'o_utility: o_coach - 2', ],</v>
+        <v xml:space="preserve">    'All': {</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="11"/>
-        <v>o_utility</v>
+        <v>All</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="12"/>
-        <v>o_support</v>
+        <v>o_power</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="10"/>
-        <v>o_utility: o_support - 0.4</v>
+        <v>All: o_power - 0.4</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_support - 0.8</v>
+        <v>All: o_power - 0.8</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_support - 1.2</v>
+        <v>All: o_power - 1.2</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_support - 2</v>
+        <v>All: o_power - 2</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="9"/>
@@ -16628,33 +16616,33 @@
       </c>
       <c r="M86" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_support': ['o_utility: o_support - 0.4', 'o_utility: o_support - 0.8', 'o_utility: o_support - 1.2', 'o_utility: o_support - 2', ],</v>
+        <v xml:space="preserve">        'o_power': ['All: o_power - 0.4', 'All: o_power - 0.8', 'All: o_power - 1.2', 'All: o_power - 2', ],</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="11"/>
-        <v>o_utility</v>
+        <v>All</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="12"/>
-        <v>o_friend</v>
+        <v>o_smallball</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="10"/>
-        <v>o_utility: o_friend - 0.4</v>
+        <v>All: o_smallball - 0.4</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_friend - 0.8</v>
+        <v>All: o_smallball - 0.8</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_friend - 1.2</v>
+        <v>All: o_smallball - 1.2</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="9"/>
-        <v>o_utility: o_friend - 2</v>
+        <v>All: o_smallball - 2</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="9"/>
@@ -16682,33 +16670,33 @@
       </c>
       <c r="M87" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_friend': ['o_utility: o_friend - 0.4', 'o_utility: o_friend - 0.8', 'o_utility: o_friend - 1.2', 'o_utility: o_friend - 2', ],</v>
+        <v xml:space="preserve">        'o_smallball': ['All: o_smallball - 0.4', 'All: o_smallball - 0.8', 'All: o_smallball - 1.2', 'All: o_smallball - 2', ],</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="11"/>
-        <v>o_utility</v>
+        <v>All</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>o_fielding</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>All: o_fielding - 0.4</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>All: o_fielding - 0.8</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>All: o_fielding - 1.2</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>All: o_fielding - 2</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="9"/>
@@ -16736,33 +16724,33 @@
       </c>
       <c r="M88" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">    },</v>
+        <v xml:space="preserve">        'o_fielding': ['All: o_fielding - 0.4', 'All: o_fielding - 0.8', 'All: o_fielding - 1.2', 'All: o_fielding - 2', ],</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="11"/>
-        <v>o_coach</v>
+        <v>All</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>o_fastball</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>All: o_fastball - 0.4</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>All: o_fastball - 0.8</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>All: o_fastball - 1.2</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>All: o_fastball - 2</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="9"/>
@@ -16790,33 +16778,33 @@
       </c>
       <c r="M89" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">    'o_coach': {</v>
+        <v xml:space="preserve">        'o_fastball': ['All: o_fastball - 0.4', 'All: o_fastball - 0.8', 'All: o_fastball - 1.2', 'All: o_fastball - 2', ],</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="11"/>
-        <v>o_coach</v>
+        <v>All</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="12"/>
-        <v>o_slugging</v>
+        <v>o_tricky</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="10"/>
-        <v>o_coach: o_slugging - 0.4</v>
+        <v>All: o_tricky - 0.4</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="9"/>
-        <v>o_coach: o_slugging - 0.8</v>
+        <v>All: o_tricky - 0.8</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="9"/>
-        <v>o_coach: o_slugging - 1.2</v>
+        <v>All: o_tricky - 1.2</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="9"/>
-        <v>o_coach: o_slugging - 2</v>
+        <v>All: o_tricky - 2</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="9"/>
@@ -16844,33 +16832,33 @@
       </c>
       <c r="M90" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_slugging': ['o_coach: o_slugging - 0.4', 'o_coach: o_slugging - 0.8', 'o_coach: o_slugging - 1.2', 'o_coach: o_slugging - 2', ],</v>
+        <v xml:space="preserve">        'o_tricky': ['All: o_tricky - 0.4', 'All: o_tricky - 0.8', 'All: o_tricky - 1.2', 'All: o_tricky - 2', ],</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="11"/>
-        <v>o_coach</v>
+        <v>All</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="12"/>
-        <v>o_smallball</v>
+        <v>o_utility</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="10"/>
-        <v>o_coach: o_smallball - 0.4</v>
+        <v>All: o_utility - 0.4</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="9"/>
-        <v>o_coach: o_smallball - 0.8</v>
+        <v>All: o_utility - 0.8</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="9"/>
-        <v>o_coach: o_smallball - 1.2</v>
+        <v>All: o_utility - 1.2</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="9"/>
-        <v>o_coach: o_smallball - 2</v>
+        <v>All: o_utility - 2</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="9"/>
@@ -16898,33 +16886,33 @@
       </c>
       <c r="M91" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_smallball': ['o_coach: o_smallball - 0.4', 'o_coach: o_smallball - 0.8', 'o_coach: o_smallball - 1.2', 'o_coach: o_smallball - 2', ],</v>
+        <v xml:space="preserve">        'o_utility': ['All: o_utility - 0.4', 'All: o_utility - 0.8', 'All: o_utility - 1.2', 'All: o_utility - 2', ],</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="11"/>
-        <v>o_coach</v>
+        <v>All</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="12"/>
-        <v>o_baserunning</v>
+        <v>o_coach</v>
       </c>
       <c r="C92" t="str">
         <f>IF(OR($B92="", C$4=""),"",CONCATENATE($A92,": ",$B92," - ",C$4))</f>
-        <v>o_coach: o_baserunning - 0.4</v>
+        <v>All: o_coach - 0.4</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" ref="D92:L107" si="15">IF(OR($B92="", D$4=""),"",CONCATENATE($A92,": ",$B92," - ",D$4))</f>
-        <v>o_coach: o_baserunning - 0.8</v>
+        <v>All: o_coach - 0.8</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_baserunning - 1.2</v>
+        <v>All: o_coach - 1.2</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_baserunning - 2</v>
+        <v>All: o_coach - 2</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="15"/>
@@ -16952,33 +16940,33 @@
       </c>
       <c r="M92" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_baserunning': ['o_coach: o_baserunning - 0.4', 'o_coach: o_baserunning - 0.8', 'o_coach: o_baserunning - 1.2', 'o_coach: o_baserunning - 2', ],</v>
+        <v xml:space="preserve">        'o_coach': ['All: o_coach - 0.4', 'All: o_coach - 0.8', 'All: o_coach - 1.2', 'All: o_coach - 2', ],</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="11"/>
-        <v>o_coach</v>
+        <v>All</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="12"/>
-        <v>o_fielding</v>
+        <v>o_support</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" ref="C93:L108" si="16">IF(OR($B93="", C$4=""),"",CONCATENATE($A93,": ",$B93," - ",C$4))</f>
-        <v>o_coach: o_fielding - 0.4</v>
+        <v>All: o_support - 0.4</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_fielding - 0.8</v>
+        <v>All: o_support - 0.8</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_fielding - 1.2</v>
+        <v>All: o_support - 1.2</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_fielding - 2</v>
+        <v>All: o_support - 2</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="15"/>
@@ -17006,33 +16994,33 @@
       </c>
       <c r="M93" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_fielding': ['o_coach: o_fielding - 0.4', 'o_coach: o_fielding - 0.8', 'o_coach: o_fielding - 1.2', 'o_coach: o_fielding - 2', ],</v>
+        <v xml:space="preserve">        'o_support': ['All: o_support - 0.4', 'All: o_support - 0.8', 'All: o_support - 1.2', 'All: o_support - 2', ],</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="11"/>
-        <v>o_coach</v>
+        <v>All</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="12"/>
-        <v>o_tricky</v>
+        <v/>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="16"/>
-        <v>o_coach: o_tricky - 0.4</v>
+        <v/>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_tricky - 0.8</v>
+        <v/>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_tricky - 1.2</v>
+        <v/>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_tricky - 2</v>
+        <v/>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="15"/>
@@ -17060,33 +17048,33 @@
       </c>
       <c r="M94" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_tricky': ['o_coach: o_tricky - 0.4', 'o_coach: o_tricky - 0.8', 'o_coach: o_tricky - 1.2', 'o_coach: o_tricky - 2', ],</v>
+        <v xml:space="preserve">    },</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="11"/>
-        <v>o_coach</v>
+        <v/>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="12"/>
-        <v>o_fastball</v>
+        <v/>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="16"/>
-        <v>o_coach: o_fastball - 0.4</v>
+        <v/>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_fastball - 0.8</v>
+        <v/>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_fastball - 1.2</v>
+        <v/>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_fastball - 2</v>
+        <v/>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="15"/>
@@ -17114,33 +17102,33 @@
       </c>
       <c r="M95" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_fastball': ['o_coach: o_fastball - 0.4', 'o_coach: o_fastball - 0.8', 'o_coach: o_fastball - 1.2', 'o_coach: o_fastball - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="11"/>
-        <v>o_coach</v>
+        <v/>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="12"/>
-        <v>o_utility</v>
+        <v/>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="16"/>
-        <v>o_coach: o_utility - 0.4</v>
+        <v/>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_utility - 0.8</v>
+        <v/>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_utility - 1.2</v>
+        <v/>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_utility - 2</v>
+        <v/>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="15"/>
@@ -17168,33 +17156,33 @@
       </c>
       <c r="M96" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_utility': ['o_coach: o_utility - 0.4', 'o_coach: o_utility - 0.8', 'o_coach: o_utility - 1.2', 'o_coach: o_utility - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="11"/>
-        <v>o_coach</v>
+        <v/>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="12"/>
-        <v>o_coach</v>
+        <v/>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="16"/>
-        <v>o_coach: o_coach - 0.4</v>
+        <v/>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_coach - 0.8</v>
+        <v/>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_coach - 1.2</v>
+        <v/>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_coach - 2</v>
+        <v/>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="15"/>
@@ -17222,33 +17210,33 @@
       </c>
       <c r="M97" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_coach': ['o_coach: o_coach - 0.4', 'o_coach: o_coach - 0.8', 'o_coach: o_coach - 1.2', 'o_coach: o_coach - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="11"/>
-        <v>o_coach</v>
+        <v/>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="12"/>
-        <v>o_support</v>
+        <v/>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="16"/>
-        <v>o_coach: o_support - 0.4</v>
+        <v/>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_support - 0.8</v>
+        <v/>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_support - 1.2</v>
+        <v/>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_support - 2</v>
+        <v/>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="15"/>
@@ -17276,33 +17264,33 @@
       </c>
       <c r="M98" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_support': ['o_coach: o_support - 0.4', 'o_coach: o_support - 0.8', 'o_coach: o_support - 1.2', 'o_coach: o_support - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="11"/>
-        <v>o_coach</v>
+        <v/>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="12"/>
-        <v>o_friend</v>
+        <v/>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="16"/>
-        <v>o_coach: o_friend - 0.4</v>
+        <v/>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_friend - 0.8</v>
+        <v/>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_friend - 1.2</v>
+        <v/>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="15"/>
-        <v>o_coach: o_friend - 2</v>
+        <v/>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="15"/>
@@ -17330,13 +17318,13 @@
       </c>
       <c r="M99" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_friend': ['o_coach: o_friend - 0.4', 'o_coach: o_friend - 0.8', 'o_coach: o_friend - 1.2', 'o_coach: o_friend - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="11"/>
-        <v>o_coach</v>
+        <v/>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="12"/>
@@ -17384,13 +17372,13 @@
       </c>
       <c r="M100" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">    },</v>
+        <v/>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="11"/>
-        <v>o_support</v>
+        <v/>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="12"/>
@@ -17438,33 +17426,33 @@
       </c>
       <c r="M101" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">    'o_support': {</v>
+        <v/>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="11"/>
-        <v>o_support</v>
+        <v/>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="12"/>
-        <v>o_slugging</v>
+        <v/>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="16"/>
-        <v>o_support: o_slugging - 0.4</v>
+        <v/>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="15"/>
-        <v>o_support: o_slugging - 0.8</v>
+        <v/>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="15"/>
-        <v>o_support: o_slugging - 1.2</v>
+        <v/>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="15"/>
-        <v>o_support: o_slugging - 2</v>
+        <v/>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="15"/>
@@ -17492,33 +17480,33 @@
       </c>
       <c r="M102" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_slugging': ['o_support: o_slugging - 0.4', 'o_support: o_slugging - 0.8', 'o_support: o_slugging - 1.2', 'o_support: o_slugging - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="11"/>
-        <v>o_support</v>
+        <v/>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="12"/>
-        <v>o_smallball</v>
+        <v/>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="16"/>
-        <v>o_support: o_smallball - 0.4</v>
+        <v/>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="15"/>
-        <v>o_support: o_smallball - 0.8</v>
+        <v/>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="15"/>
-        <v>o_support: o_smallball - 1.2</v>
+        <v/>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="15"/>
-        <v>o_support: o_smallball - 2</v>
+        <v/>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="15"/>
@@ -17546,33 +17534,33 @@
       </c>
       <c r="M103" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_smallball': ['o_support: o_smallball - 0.4', 'o_support: o_smallball - 0.8', 'o_support: o_smallball - 1.2', 'o_support: o_smallball - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="11"/>
-        <v>o_support</v>
+        <v/>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="12"/>
-        <v>o_baserunning</v>
+        <v/>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="16"/>
-        <v>o_support: o_baserunning - 0.4</v>
+        <v/>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="15"/>
-        <v>o_support: o_baserunning - 0.8</v>
+        <v/>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="15"/>
-        <v>o_support: o_baserunning - 1.2</v>
+        <v/>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="15"/>
-        <v>o_support: o_baserunning - 2</v>
+        <v/>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="15"/>
@@ -17600,7 +17588,7 @@
       </c>
       <c r="M104" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_baserunning': ['o_support: o_baserunning - 0.4', 'o_support: o_baserunning - 0.8', 'o_support: o_baserunning - 1.2', 'o_support: o_baserunning - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -17612,27 +17600,27 @@
         ""),
     INDEX(aspects,1,1+FLOOR((ROW()-ROW(start))/(COUNTA(aspects)+2),1))
 )</f>
-        <v>o_support</v>
+        <v/>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="12"/>
-        <v>o_fielding</v>
+        <v/>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="16"/>
-        <v>o_support: o_fielding - 0.4</v>
+        <v/>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="15"/>
-        <v>o_support: o_fielding - 0.8</v>
+        <v/>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="15"/>
-        <v>o_support: o_fielding - 1.2</v>
+        <v/>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="15"/>
-        <v>o_support: o_fielding - 2</v>
+        <v/>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="15"/>
@@ -17660,33 +17648,33 @@
       </c>
       <c r="M105" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_fielding': ['o_support: o_fielding - 0.4', 'o_support: o_fielding - 0.8', 'o_support: o_fielding - 1.2', 'o_support: o_fielding - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="17"/>
-        <v>o_support</v>
+        <v/>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="12"/>
-        <v>o_tricky</v>
+        <v/>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="16"/>
-        <v>o_support: o_tricky - 0.4</v>
+        <v/>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="15"/>
-        <v>o_support: o_tricky - 0.8</v>
+        <v/>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="15"/>
-        <v>o_support: o_tricky - 1.2</v>
+        <v/>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="15"/>
-        <v>o_support: o_tricky - 2</v>
+        <v/>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="15"/>
@@ -17714,33 +17702,33 @@
       </c>
       <c r="M106" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_tricky': ['o_support: o_tricky - 0.4', 'o_support: o_tricky - 0.8', 'o_support: o_tricky - 1.2', 'o_support: o_tricky - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="17"/>
-        <v>o_support</v>
+        <v/>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="12"/>
-        <v>o_fastball</v>
+        <v/>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="16"/>
-        <v>o_support: o_fastball - 0.4</v>
+        <v/>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="15"/>
-        <v>o_support: o_fastball - 0.8</v>
+        <v/>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="15"/>
-        <v>o_support: o_fastball - 1.2</v>
+        <v/>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="15"/>
-        <v>o_support: o_fastball - 2</v>
+        <v/>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="15"/>
@@ -17768,33 +17756,33 @@
       </c>
       <c r="M107" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_fastball': ['o_support: o_fastball - 0.4', 'o_support: o_fastball - 0.8', 'o_support: o_fastball - 1.2', 'o_support: o_fastball - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="17"/>
-        <v>o_support</v>
+        <v/>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="12"/>
-        <v>o_utility</v>
+        <v/>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="16"/>
-        <v>o_support: o_utility - 0.4</v>
+        <v/>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="16"/>
-        <v>o_support: o_utility - 0.8</v>
+        <v/>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="16"/>
-        <v>o_support: o_utility - 1.2</v>
+        <v/>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="16"/>
-        <v>o_support: o_utility - 2</v>
+        <v/>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="16"/>
@@ -17822,33 +17810,33 @@
       </c>
       <c r="M108" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_utility': ['o_support: o_utility - 0.4', 'o_support: o_utility - 0.8', 'o_support: o_utility - 1.2', 'o_support: o_utility - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="17"/>
-        <v>o_support</v>
+        <v/>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="12"/>
-        <v>o_coach</v>
+        <v/>
       </c>
       <c r="C109" t="str">
         <f t="shared" ref="C109:L124" si="18">IF(OR($B109="", C$4=""),"",CONCATENATE($A109,": ",$B109," - ",C$4))</f>
-        <v>o_support: o_coach - 0.4</v>
+        <v/>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="18"/>
-        <v>o_support: o_coach - 0.8</v>
+        <v/>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="18"/>
-        <v>o_support: o_coach - 1.2</v>
+        <v/>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="18"/>
-        <v>o_support: o_coach - 2</v>
+        <v/>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="18"/>
@@ -17876,33 +17864,33 @@
       </c>
       <c r="M109" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_coach': ['o_support: o_coach - 0.4', 'o_support: o_coach - 0.8', 'o_support: o_coach - 1.2', 'o_support: o_coach - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="17"/>
-        <v>o_support</v>
+        <v/>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="12"/>
-        <v>o_support</v>
+        <v/>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="18"/>
-        <v>o_support: o_support - 0.4</v>
+        <v/>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="18"/>
-        <v>o_support: o_support - 0.8</v>
+        <v/>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="18"/>
-        <v>o_support: o_support - 1.2</v>
+        <v/>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="18"/>
-        <v>o_support: o_support - 2</v>
+        <v/>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="18"/>
@@ -17930,33 +17918,33 @@
       </c>
       <c r="M110" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_support': ['o_support: o_support - 0.4', 'o_support: o_support - 0.8', 'o_support: o_support - 1.2', 'o_support: o_support - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="17"/>
-        <v>o_support</v>
+        <v/>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="12"/>
-        <v>o_friend</v>
+        <v/>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="18"/>
-        <v>o_support: o_friend - 0.4</v>
+        <v/>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="18"/>
-        <v>o_support: o_friend - 0.8</v>
+        <v/>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="18"/>
-        <v>o_support: o_friend - 1.2</v>
+        <v/>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="18"/>
-        <v>o_support: o_friend - 2</v>
+        <v/>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="18"/>
@@ -17984,13 +17972,13 @@
       </c>
       <c r="M111" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_friend': ['o_support: o_friend - 0.4', 'o_support: o_friend - 0.8', 'o_support: o_friend - 1.2', 'o_support: o_friend - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="17"/>
-        <v>o_support</v>
+        <v/>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="12"/>
@@ -18038,13 +18026,13 @@
       </c>
       <c r="M112" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">    },</v>
+        <v/>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="17"/>
-        <v>o_friend</v>
+        <v/>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="12"/>
@@ -18092,33 +18080,33 @@
       </c>
       <c r="M113" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">    'o_friend': {</v>
+        <v/>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="17"/>
-        <v>o_friend</v>
+        <v/>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="12"/>
-        <v>o_slugging</v>
+        <v/>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_slugging - 0.4</v>
+        <v/>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_slugging - 0.8</v>
+        <v/>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_slugging - 1.2</v>
+        <v/>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_slugging - 2</v>
+        <v/>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="18"/>
@@ -18146,33 +18134,33 @@
       </c>
       <c r="M114" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_slugging': ['o_friend: o_slugging - 0.4', 'o_friend: o_slugging - 0.8', 'o_friend: o_slugging - 1.2', 'o_friend: o_slugging - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="17"/>
-        <v>o_friend</v>
+        <v/>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="12"/>
-        <v>o_smallball</v>
+        <v/>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_smallball - 0.4</v>
+        <v/>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_smallball - 0.8</v>
+        <v/>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_smallball - 1.2</v>
+        <v/>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_smallball - 2</v>
+        <v/>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="18"/>
@@ -18200,33 +18188,33 @@
       </c>
       <c r="M115" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_smallball': ['o_friend: o_smallball - 0.4', 'o_friend: o_smallball - 0.8', 'o_friend: o_smallball - 1.2', 'o_friend: o_smallball - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="17"/>
-        <v>o_friend</v>
+        <v/>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="12"/>
-        <v>o_baserunning</v>
+        <v/>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_baserunning - 0.4</v>
+        <v/>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_baserunning - 0.8</v>
+        <v/>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_baserunning - 1.2</v>
+        <v/>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_baserunning - 2</v>
+        <v/>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="18"/>
@@ -18254,33 +18242,33 @@
       </c>
       <c r="M116" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_baserunning': ['o_friend: o_baserunning - 0.4', 'o_friend: o_baserunning - 0.8', 'o_friend: o_baserunning - 1.2', 'o_friend: o_baserunning - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="17"/>
-        <v>o_friend</v>
+        <v/>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="12"/>
-        <v>o_fielding</v>
+        <v/>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_fielding - 0.4</v>
+        <v/>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_fielding - 0.8</v>
+        <v/>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_fielding - 1.2</v>
+        <v/>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_fielding - 2</v>
+        <v/>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="18"/>
@@ -18308,33 +18296,33 @@
       </c>
       <c r="M117" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_fielding': ['o_friend: o_fielding - 0.4', 'o_friend: o_fielding - 0.8', 'o_friend: o_fielding - 1.2', 'o_friend: o_fielding - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="17"/>
-        <v>o_friend</v>
+        <v/>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="12"/>
-        <v>o_tricky</v>
+        <v/>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_tricky - 0.4</v>
+        <v/>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_tricky - 0.8</v>
+        <v/>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_tricky - 1.2</v>
+        <v/>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_tricky - 2</v>
+        <v/>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="18"/>
@@ -18362,33 +18350,33 @@
       </c>
       <c r="M118" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_tricky': ['o_friend: o_tricky - 0.4', 'o_friend: o_tricky - 0.8', 'o_friend: o_tricky - 1.2', 'o_friend: o_tricky - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="17"/>
-        <v>o_friend</v>
+        <v/>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="12"/>
-        <v>o_fastball</v>
+        <v/>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_fastball - 0.4</v>
+        <v/>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_fastball - 0.8</v>
+        <v/>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_fastball - 1.2</v>
+        <v/>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_fastball - 2</v>
+        <v/>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="18"/>
@@ -18416,33 +18404,33 @@
       </c>
       <c r="M119" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_fastball': ['o_friend: o_fastball - 0.4', 'o_friend: o_fastball - 0.8', 'o_friend: o_fastball - 1.2', 'o_friend: o_fastball - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="17"/>
-        <v>o_friend</v>
+        <v/>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="12"/>
-        <v>o_utility</v>
+        <v/>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_utility - 0.4</v>
+        <v/>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_utility - 0.8</v>
+        <v/>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_utility - 1.2</v>
+        <v/>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_utility - 2</v>
+        <v/>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="18"/>
@@ -18470,33 +18458,33 @@
       </c>
       <c r="M120" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_utility': ['o_friend: o_utility - 0.4', 'o_friend: o_utility - 0.8', 'o_friend: o_utility - 1.2', 'o_friend: o_utility - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="17"/>
-        <v>o_friend</v>
+        <v/>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="12"/>
-        <v>o_coach</v>
+        <v/>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_coach - 0.4</v>
+        <v/>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_coach - 0.8</v>
+        <v/>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_coach - 1.2</v>
+        <v/>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_coach - 2</v>
+        <v/>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="18"/>
@@ -18524,33 +18512,33 @@
       </c>
       <c r="M121" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_coach': ['o_friend: o_coach - 0.4', 'o_friend: o_coach - 0.8', 'o_friend: o_coach - 1.2', 'o_friend: o_coach - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="17"/>
-        <v>o_friend</v>
+        <v/>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="12"/>
-        <v>o_support</v>
+        <v/>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_support - 0.4</v>
+        <v/>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_support - 0.8</v>
+        <v/>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_support - 1.2</v>
+        <v/>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_support - 2</v>
+        <v/>
       </c>
       <c r="G122" t="str">
         <f t="shared" si="18"/>
@@ -18578,33 +18566,33 @@
       </c>
       <c r="M122" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_support': ['o_friend: o_support - 0.4', 'o_friend: o_support - 0.8', 'o_friend: o_support - 1.2', 'o_friend: o_support - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="17"/>
-        <v>o_friend</v>
+        <v/>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="12"/>
-        <v>o_friend</v>
+        <v/>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_friend - 0.4</v>
+        <v/>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_friend - 0.8</v>
+        <v/>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_friend - 1.2</v>
+        <v/>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="18"/>
-        <v>o_friend: o_friend - 2</v>
+        <v/>
       </c>
       <c r="G123" t="str">
         <f t="shared" si="18"/>
@@ -18632,13 +18620,13 @@
       </c>
       <c r="M123" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">        'o_friend': ['o_friend: o_friend - 0.4', 'o_friend: o_friend - 0.8', 'o_friend: o_friend - 1.2', 'o_friend: o_friend - 2', ],</v>
+        <v/>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="17"/>
-        <v>o_friend</v>
+        <v/>
       </c>
       <c r="B124" t="str">
         <f t="shared" si="12"/>
@@ -18686,7 +18674,7 @@
       </c>
       <c r="M124" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">    },</v>
+        <v/>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -18761,7 +18749,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -18907,7 +18895,7 @@
         <v>slugging</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="3"/>
@@ -18955,7 +18943,7 @@
         <v>contact</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="3"/>
@@ -19000,7 +18988,7 @@
         <v>manufacture</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="3"/>
@@ -19045,7 +19033,7 @@
         <v>utility_hitter</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="3"/>
@@ -19182,7 +19170,7 @@
         <v>slugging</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="3"/>
@@ -19272,7 +19260,7 @@
         <v>manufacture</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="3"/>
@@ -19317,7 +19305,7 @@
         <v>utility_hitter</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="3"/>
@@ -19454,7 +19442,7 @@
         <v>slugging</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="3"/>
@@ -19499,7 +19487,7 @@
         <v>contact</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="3"/>
@@ -19544,7 +19532,7 @@
         <v>manufacture</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="3"/>
@@ -19589,7 +19577,7 @@
         <v>utility_hitter</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="5"/>
@@ -19726,7 +19714,7 @@
         <v>slugging</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="5"/>
@@ -19771,7 +19759,7 @@
         <v>contact</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="5"/>
@@ -19816,7 +19804,7 @@
         <v>manufacture</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="5"/>
@@ -19861,7 +19849,7 @@
         <v>utility_hitter</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="5"/>
@@ -19998,7 +19986,7 @@
         <v>slugging</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="5"/>
@@ -20043,7 +20031,7 @@
         <v>contact</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="5"/>
@@ -20088,7 +20076,7 @@
         <v>manufacture</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="5"/>
@@ -20133,7 +20121,7 @@
         <v>utility_hitter</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="5"/>
@@ -24157,16 +24145,16 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -24449,7 +24437,7 @@
         <v>pitcher_generic</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="3"/>
@@ -24766,7 +24754,7 @@
         <v>pitcher_generic</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="3"/>
@@ -25083,7 +25071,7 @@
         <v>pitcher_generic</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" ref="C10:L37" si="4">IF(OR($B21="", E$4=""),"",CONCATENATE($A21,": ",$B21," - ",E$4))</f>
@@ -25241,7 +25229,7 @@
         <v>infield</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="4"/>
@@ -25293,7 +25281,7 @@
         <v>outfield</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="4"/>
@@ -25345,7 +25333,7 @@
         <v>catcher</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="4"/>
@@ -25397,7 +25385,7 @@
         <v>pitcher_generic</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="4"/>
@@ -25710,7 +25698,7 @@
         <v>pitcher_generic</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="4"/>
@@ -29813,16 +29801,16 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -35081,7 +35069,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -35096,16 +35084,16 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -40800,16 +40788,16 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -40941,7 +40929,7 @@
         <v>determination</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="3"/>
@@ -40997,7 +40985,7 @@
         <v>enthusiasm</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="3"/>
@@ -41050,7 +41038,7 @@
         <v>stability</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="3"/>
@@ -41103,7 +41091,7 @@
         <v>insight</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="3"/>
@@ -41256,7 +41244,7 @@
         <v>determination</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="3"/>
@@ -41309,7 +41297,7 @@
         <v>enthusiasm</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="3"/>
@@ -41362,7 +41350,7 @@
         <v>stability</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="3"/>
@@ -41415,7 +41403,7 @@
         <v>insight</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="3"/>
@@ -41568,7 +41556,7 @@
         <v>determination</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="3"/>
@@ -41621,7 +41609,7 @@
         <v>enthusiasm</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="3"/>
@@ -41674,7 +41662,7 @@
         <v>stability</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="3"/>
@@ -41727,7 +41715,7 @@
         <v>insight</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" ref="D21:L28" si="5">IF(OR($B21="", D$4=""),"",CONCATENATE($A21,": ",$B21," - ",D$4))</f>
@@ -41880,7 +41868,7 @@
         <v>determination</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="5"/>
@@ -41933,7 +41921,7 @@
         <v>enthusiasm</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="5"/>
@@ -41986,7 +41974,7 @@
         <v>stability</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="5"/>
@@ -42039,7 +42027,7 @@
         <v>insight</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="5"/>
